--- a/docs/IST_220216_01.xlsx
+++ b/docs/IST_220216_01.xlsx
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -57,6 +57,11 @@
       <color rgb="FF000000"/>
       <sz val="10"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibry Light"/>
+      <b val="1"/>
+      <sz val="16"/>
     </font>
     <font>
       <name val="Calibri Light"/>
@@ -289,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -348,14 +353,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -363,17 +368,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -381,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -389,21 +397,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -907,8 +915,8 @@
   </sheetPr>
   <dimension ref="A1:Z189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M62" sqref="M62:N63"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -972,9 +980,9 @@
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="6" t="n"/>
-      <c r="B8" s="30" t="inlineStr">
-        <is>
-          <t>UMOWA – ZGŁOSZENIE</t>
+      <c r="B8" s="34" t="inlineStr">
+        <is>
+          <t>UMOWA NR IST/220216/01</t>
         </is>
       </c>
       <c r="Z8" s="7" t="n"/>
@@ -1042,14 +1050,14 @@
       <c r="D17" s="11" t="n"/>
       <c r="E17" s="11" t="n"/>
       <c r="F17" s="11" t="n"/>
-      <c r="G17" s="28" t="n"/>
+      <c r="G17" s="29" t="n"/>
       <c r="H17" s="11" t="n"/>
       <c r="I17" s="11" t="n"/>
       <c r="J17" s="11" t="n"/>
       <c r="K17" s="11" t="n"/>
       <c r="L17" s="11" t="n"/>
       <c r="M17" s="13" t="n"/>
-      <c r="R17" s="28" t="inlineStr">
+      <c r="R17" s="29" t="inlineStr">
         <is>
           <t>Miejsce i data podpisania:</t>
         </is>
@@ -1059,7 +1067,7 @@
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="6" t="n"/>
       <c r="M18" s="27" t="n"/>
-      <c r="R18" s="34" t="n">
+      <c r="R18" s="35" t="n">
         <v>44608</v>
       </c>
       <c r="Z18" s="7" t="n"/>
@@ -1086,7 +1094,7 @@
       <c r="O20" s="11" t="n"/>
       <c r="P20" s="11" t="n"/>
       <c r="Q20" s="11" t="n"/>
-      <c r="R20" s="28" t="inlineStr">
+      <c r="R20" s="29" t="inlineStr">
         <is>
           <t>Data imprezy turystycznej:</t>
         </is>
@@ -1181,7 +1189,7 @@
       <c r="D24" s="11" t="n"/>
       <c r="E24" s="11" t="n"/>
       <c r="F24" s="11" t="n"/>
-      <c r="G24" s="28" t="n"/>
+      <c r="G24" s="29" t="n"/>
       <c r="H24" s="11" t="n"/>
       <c r="I24" s="11" t="n"/>
       <c r="J24" s="11" t="n"/>
@@ -1267,7 +1275,7 @@
       <c r="O27" s="11" t="n"/>
       <c r="P27" s="11" t="n"/>
       <c r="Q27" s="11" t="n"/>
-      <c r="R27" s="28" t="inlineStr">
+      <c r="R27" s="29" t="inlineStr">
         <is>
           <t>Data urodzenia:</t>
         </is>
@@ -1296,7 +1304,7 @@
       <c r="O28" s="11" t="n"/>
       <c r="P28" s="11" t="n"/>
       <c r="Q28" s="11" t="n"/>
-      <c r="R28" s="34" t="n">
+      <c r="R28" s="35" t="n">
         <v>20229</v>
       </c>
       <c r="Z28" s="7" t="n"/>
@@ -1307,7 +1315,7 @@
       <c r="D29" s="11" t="n"/>
       <c r="E29" s="11" t="n"/>
       <c r="F29" s="11" t="n"/>
-      <c r="G29" s="28" t="n"/>
+      <c r="G29" s="29" t="n"/>
       <c r="H29" s="11" t="n"/>
       <c r="I29" s="11" t="n"/>
       <c r="J29" s="11" t="n"/>
@@ -1341,7 +1349,7 @@
       <c r="O30" s="11" t="n"/>
       <c r="P30" s="11" t="n"/>
       <c r="Q30" s="11" t="n"/>
-      <c r="R30" s="28" t="inlineStr">
+      <c r="R30" s="29" t="inlineStr">
         <is>
           <t>Telefon kontaktowy:</t>
         </is>
@@ -1370,7 +1378,7 @@
       <c r="O31" s="11" t="n"/>
       <c r="P31" s="11" t="n"/>
       <c r="Q31" s="11" t="n"/>
-      <c r="R31" s="29" t="inlineStr">
+      <c r="R31" s="30" t="inlineStr">
         <is>
           <t>555-888-999</t>
         </is>
@@ -1447,7 +1455,7 @@
       <c r="D34" s="11" t="n"/>
       <c r="E34" s="11" t="n"/>
       <c r="F34" s="11" t="n"/>
-      <c r="G34" s="28" t="n"/>
+      <c r="G34" s="29" t="n"/>
       <c r="H34" s="11" t="n"/>
       <c r="I34" s="11" t="n"/>
       <c r="J34" s="11" t="n"/>
@@ -1461,12 +1469,12 @@
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="6" t="n"/>
-      <c r="B35" s="35" t="inlineStr">
+      <c r="B35" s="36" t="inlineStr">
         <is>
           <t>1.</t>
         </is>
       </c>
-      <c r="C35" s="35" t="inlineStr">
+      <c r="C35" s="36" t="inlineStr">
         <is>
           <t>Piotr Klim</t>
         </is>
@@ -1475,12 +1483,12 @@
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="6" t="n"/>
-      <c r="B36" s="36" t="inlineStr">
+      <c r="B36" s="37" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="C36" s="36" t="inlineStr">
+      <c r="C36" s="37" t="inlineStr">
         <is>
           <t>Bogna Bunikowska</t>
         </is>
@@ -1561,274 +1569,274 @@
     </row>
     <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="6" t="n"/>
-      <c r="B41" s="37" t="inlineStr">
+      <c r="B41" s="38" t="inlineStr">
         <is>
           <t>Kierunek</t>
         </is>
       </c>
-      <c r="C41" s="38" t="n"/>
-      <c r="D41" s="38" t="n"/>
-      <c r="E41" s="39" t="n"/>
-      <c r="F41" s="37" t="inlineStr">
+      <c r="C41" s="39" t="n"/>
+      <c r="D41" s="39" t="n"/>
+      <c r="E41" s="40" t="n"/>
+      <c r="F41" s="38" t="inlineStr">
         <is>
           <t>Daty</t>
         </is>
       </c>
-      <c r="G41" s="38" t="n"/>
-      <c r="H41" s="38" t="n"/>
-      <c r="I41" s="39" t="n"/>
-      <c r="J41" s="37" t="inlineStr">
+      <c r="G41" s="39" t="n"/>
+      <c r="H41" s="39" t="n"/>
+      <c r="I41" s="40" t="n"/>
+      <c r="J41" s="38" t="inlineStr">
         <is>
           <t>Liczba nocy</t>
         </is>
       </c>
-      <c r="K41" s="39" t="n"/>
-      <c r="L41" s="37" t="inlineStr">
+      <c r="K41" s="40" t="n"/>
+      <c r="L41" s="38" t="inlineStr">
         <is>
           <t>Hotel</t>
         </is>
       </c>
-      <c r="M41" s="38" t="n"/>
-      <c r="N41" s="38" t="n"/>
-      <c r="O41" s="38" t="n"/>
-      <c r="P41" s="38" t="n"/>
-      <c r="Q41" s="39" t="n"/>
-      <c r="R41" s="37" t="inlineStr">
+      <c r="M41" s="39" t="n"/>
+      <c r="N41" s="39" t="n"/>
+      <c r="O41" s="39" t="n"/>
+      <c r="P41" s="39" t="n"/>
+      <c r="Q41" s="40" t="n"/>
+      <c r="R41" s="38" t="inlineStr">
         <is>
           <t>Zakwaterowanie</t>
         </is>
       </c>
-      <c r="S41" s="38" t="n"/>
-      <c r="T41" s="38" t="n"/>
-      <c r="U41" s="38" t="n"/>
-      <c r="V41" s="39" t="n"/>
-      <c r="W41" s="37" t="inlineStr">
+      <c r="S41" s="39" t="n"/>
+      <c r="T41" s="39" t="n"/>
+      <c r="U41" s="39" t="n"/>
+      <c r="V41" s="40" t="n"/>
+      <c r="W41" s="38" t="inlineStr">
         <is>
           <t>Wyżywienie</t>
         </is>
       </c>
-      <c r="X41" s="38" t="n"/>
-      <c r="Y41" s="39" t="n"/>
+      <c r="X41" s="39" t="n"/>
+      <c r="Y41" s="40" t="n"/>
       <c r="Z41" s="7" t="n"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="6" t="n"/>
-      <c r="B42" s="40" t="n"/>
-      <c r="C42" s="41" t="n"/>
-      <c r="D42" s="41" t="n"/>
-      <c r="E42" s="42" t="n"/>
-      <c r="F42" s="40" t="n"/>
-      <c r="G42" s="41" t="n"/>
-      <c r="H42" s="41" t="n"/>
-      <c r="I42" s="42" t="n"/>
-      <c r="J42" s="40" t="n"/>
-      <c r="K42" s="42" t="n"/>
-      <c r="L42" s="40" t="n"/>
-      <c r="M42" s="41" t="n"/>
-      <c r="N42" s="41" t="n"/>
-      <c r="O42" s="41" t="n"/>
-      <c r="P42" s="41" t="n"/>
-      <c r="Q42" s="42" t="n"/>
-      <c r="R42" s="40" t="n"/>
-      <c r="S42" s="41" t="n"/>
-      <c r="T42" s="41" t="n"/>
-      <c r="U42" s="41" t="n"/>
-      <c r="V42" s="42" t="n"/>
-      <c r="W42" s="40" t="n"/>
-      <c r="X42" s="41" t="n"/>
-      <c r="Y42" s="42" t="n"/>
+      <c r="B42" s="41" t="n"/>
+      <c r="C42" s="42" t="n"/>
+      <c r="D42" s="42" t="n"/>
+      <c r="E42" s="43" t="n"/>
+      <c r="F42" s="41" t="n"/>
+      <c r="G42" s="42" t="n"/>
+      <c r="H42" s="42" t="n"/>
+      <c r="I42" s="43" t="n"/>
+      <c r="J42" s="41" t="n"/>
+      <c r="K42" s="43" t="n"/>
+      <c r="L42" s="41" t="n"/>
+      <c r="M42" s="42" t="n"/>
+      <c r="N42" s="42" t="n"/>
+      <c r="O42" s="42" t="n"/>
+      <c r="P42" s="42" t="n"/>
+      <c r="Q42" s="43" t="n"/>
+      <c r="R42" s="41" t="n"/>
+      <c r="S42" s="42" t="n"/>
+      <c r="T42" s="42" t="n"/>
+      <c r="U42" s="42" t="n"/>
+      <c r="V42" s="43" t="n"/>
+      <c r="W42" s="41" t="n"/>
+      <c r="X42" s="42" t="n"/>
+      <c r="Y42" s="43" t="n"/>
       <c r="Z42" s="7" t="n"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
       <c r="A43" s="6" t="n"/>
-      <c r="B43" s="43" t="inlineStr">
+      <c r="B43" s="44" t="inlineStr">
         <is>
           <t>Stany Zjednoczone
 Alabama</t>
         </is>
       </c>
-      <c r="C43" s="38" t="n"/>
-      <c r="D43" s="38" t="n"/>
-      <c r="E43" s="39" t="n"/>
-      <c r="F43" s="43" t="inlineStr">
+      <c r="C43" s="39" t="n"/>
+      <c r="D43" s="39" t="n"/>
+      <c r="E43" s="40" t="n"/>
+      <c r="F43" s="44" t="inlineStr">
         <is>
           <t>2022-02-17 -
 2022-02-18</t>
         </is>
       </c>
-      <c r="G43" s="38" t="n"/>
-      <c r="H43" s="38" t="n"/>
-      <c r="I43" s="39" t="n"/>
-      <c r="J43" s="43" t="n">
+      <c r="G43" s="39" t="n"/>
+      <c r="H43" s="39" t="n"/>
+      <c r="I43" s="40" t="n"/>
+      <c r="J43" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="K43" s="39" t="n"/>
-      <c r="L43" s="43" t="inlineStr">
+      <c r="K43" s="40" t="n"/>
+      <c r="L43" s="44" t="inlineStr">
         <is>
           <t>Hotel Alabama</t>
         </is>
       </c>
-      <c r="M43" s="38" t="n"/>
-      <c r="N43" s="38" t="n"/>
-      <c r="O43" s="38" t="n"/>
-      <c r="P43" s="38" t="n"/>
-      <c r="Q43" s="39" t="n"/>
-      <c r="R43" s="43" t="inlineStr">
+      <c r="M43" s="39" t="n"/>
+      <c r="N43" s="39" t="n"/>
+      <c r="O43" s="39" t="n"/>
+      <c r="P43" s="39" t="n"/>
+      <c r="Q43" s="40" t="n"/>
+      <c r="R43" s="44" t="inlineStr">
         <is>
           <t>Pokoj w alabamie mamie</t>
         </is>
       </c>
-      <c r="S43" s="38" t="n"/>
-      <c r="T43" s="38" t="n"/>
-      <c r="U43" s="38" t="n"/>
-      <c r="V43" s="39" t="n"/>
-      <c r="W43" s="43" t="inlineStr">
+      <c r="S43" s="39" t="n"/>
+      <c r="T43" s="39" t="n"/>
+      <c r="U43" s="39" t="n"/>
+      <c r="V43" s="40" t="n"/>
+      <c r="W43" s="44" t="inlineStr">
         <is>
           <t>HB</t>
         </is>
       </c>
-      <c r="X43" s="38" t="n"/>
-      <c r="Y43" s="39" t="n"/>
+      <c r="X43" s="39" t="n"/>
+      <c r="Y43" s="40" t="n"/>
       <c r="Z43" s="7" t="n"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="6" t="n"/>
-      <c r="B44" s="44" t="n"/>
-      <c r="E44" s="45" t="n"/>
-      <c r="F44" s="44" t="n"/>
-      <c r="I44" s="45" t="n"/>
-      <c r="J44" s="44" t="n"/>
-      <c r="K44" s="45" t="n"/>
-      <c r="L44" s="44" t="n"/>
-      <c r="Q44" s="45" t="n"/>
-      <c r="R44" s="44" t="n"/>
-      <c r="V44" s="45" t="n"/>
-      <c r="W44" s="44" t="n"/>
-      <c r="Y44" s="45" t="n"/>
+      <c r="B44" s="45" t="n"/>
+      <c r="E44" s="46" t="n"/>
+      <c r="F44" s="45" t="n"/>
+      <c r="I44" s="46" t="n"/>
+      <c r="J44" s="45" t="n"/>
+      <c r="K44" s="46" t="n"/>
+      <c r="L44" s="45" t="n"/>
+      <c r="Q44" s="46" t="n"/>
+      <c r="R44" s="45" t="n"/>
+      <c r="V44" s="46" t="n"/>
+      <c r="W44" s="45" t="n"/>
+      <c r="Y44" s="46" t="n"/>
       <c r="Z44" s="7" t="n"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="6" t="n"/>
-      <c r="B45" s="40" t="n"/>
-      <c r="C45" s="41" t="n"/>
-      <c r="D45" s="41" t="n"/>
-      <c r="E45" s="42" t="n"/>
-      <c r="F45" s="40" t="n"/>
-      <c r="G45" s="41" t="n"/>
-      <c r="H45" s="41" t="n"/>
-      <c r="I45" s="42" t="n"/>
-      <c r="J45" s="40" t="n"/>
-      <c r="K45" s="42" t="n"/>
-      <c r="L45" s="40" t="n"/>
-      <c r="M45" s="41" t="n"/>
-      <c r="N45" s="41" t="n"/>
-      <c r="O45" s="41" t="n"/>
-      <c r="P45" s="41" t="n"/>
-      <c r="Q45" s="42" t="n"/>
-      <c r="R45" s="40" t="n"/>
-      <c r="S45" s="41" t="n"/>
-      <c r="T45" s="41" t="n"/>
-      <c r="U45" s="41" t="n"/>
-      <c r="V45" s="42" t="n"/>
-      <c r="W45" s="40" t="n"/>
-      <c r="X45" s="41" t="n"/>
-      <c r="Y45" s="42" t="n"/>
+      <c r="B45" s="41" t="n"/>
+      <c r="C45" s="42" t="n"/>
+      <c r="D45" s="42" t="n"/>
+      <c r="E45" s="43" t="n"/>
+      <c r="F45" s="41" t="n"/>
+      <c r="G45" s="42" t="n"/>
+      <c r="H45" s="42" t="n"/>
+      <c r="I45" s="43" t="n"/>
+      <c r="J45" s="41" t="n"/>
+      <c r="K45" s="43" t="n"/>
+      <c r="L45" s="41" t="n"/>
+      <c r="M45" s="42" t="n"/>
+      <c r="N45" s="42" t="n"/>
+      <c r="O45" s="42" t="n"/>
+      <c r="P45" s="42" t="n"/>
+      <c r="Q45" s="43" t="n"/>
+      <c r="R45" s="41" t="n"/>
+      <c r="S45" s="42" t="n"/>
+      <c r="T45" s="42" t="n"/>
+      <c r="U45" s="42" t="n"/>
+      <c r="V45" s="43" t="n"/>
+      <c r="W45" s="41" t="n"/>
+      <c r="X45" s="42" t="n"/>
+      <c r="Y45" s="43" t="n"/>
       <c r="Z45" s="7" t="n"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="6" t="n"/>
-      <c r="B46" s="43" t="inlineStr">
+      <c r="B46" s="44" t="inlineStr">
         <is>
           <t>Stany Zjednoczone
 Alaska</t>
         </is>
       </c>
-      <c r="C46" s="38" t="n"/>
-      <c r="D46" s="38" t="n"/>
-      <c r="E46" s="39" t="n"/>
-      <c r="F46" s="43" t="inlineStr">
+      <c r="C46" s="39" t="n"/>
+      <c r="D46" s="39" t="n"/>
+      <c r="E46" s="40" t="n"/>
+      <c r="F46" s="44" t="inlineStr">
         <is>
           <t>2022-02-25 -
 2022-02-26</t>
         </is>
       </c>
-      <c r="G46" s="38" t="n"/>
-      <c r="H46" s="38" t="n"/>
-      <c r="I46" s="39" t="n"/>
-      <c r="J46" s="43" t="n">
+      <c r="G46" s="39" t="n"/>
+      <c r="H46" s="39" t="n"/>
+      <c r="I46" s="40" t="n"/>
+      <c r="J46" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="K46" s="39" t="n"/>
-      <c r="L46" s="43" t="inlineStr">
+      <c r="K46" s="40" t="n"/>
+      <c r="L46" s="44" t="inlineStr">
         <is>
           <t>Hotel Alaska</t>
         </is>
       </c>
-      <c r="M46" s="38" t="n"/>
-      <c r="N46" s="38" t="n"/>
-      <c r="O46" s="38" t="n"/>
-      <c r="P46" s="38" t="n"/>
-      <c r="Q46" s="39" t="n"/>
-      <c r="R46" s="43" t="inlineStr">
+      <c r="M46" s="39" t="n"/>
+      <c r="N46" s="39" t="n"/>
+      <c r="O46" s="39" t="n"/>
+      <c r="P46" s="39" t="n"/>
+      <c r="Q46" s="40" t="n"/>
+      <c r="R46" s="44" t="inlineStr">
         <is>
           <t>Grand Deluxe Room</t>
         </is>
       </c>
-      <c r="S46" s="38" t="n"/>
-      <c r="T46" s="38" t="n"/>
-      <c r="U46" s="38" t="n"/>
-      <c r="V46" s="39" t="n"/>
-      <c r="W46" s="43" t="inlineStr">
+      <c r="S46" s="39" t="n"/>
+      <c r="T46" s="39" t="n"/>
+      <c r="U46" s="39" t="n"/>
+      <c r="V46" s="40" t="n"/>
+      <c r="W46" s="44" t="inlineStr">
         <is>
           <t>BB</t>
         </is>
       </c>
-      <c r="X46" s="38" t="n"/>
-      <c r="Y46" s="39" t="n"/>
+      <c r="X46" s="39" t="n"/>
+      <c r="Y46" s="40" t="n"/>
       <c r="Z46" s="7" t="n"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="6" t="n"/>
-      <c r="B47" s="44" t="n"/>
-      <c r="E47" s="45" t="n"/>
-      <c r="F47" s="44" t="n"/>
-      <c r="I47" s="45" t="n"/>
-      <c r="J47" s="44" t="n"/>
-      <c r="K47" s="45" t="n"/>
-      <c r="L47" s="44" t="n"/>
-      <c r="Q47" s="45" t="n"/>
-      <c r="R47" s="44" t="n"/>
-      <c r="V47" s="45" t="n"/>
-      <c r="W47" s="44" t="n"/>
-      <c r="Y47" s="45" t="n"/>
+      <c r="B47" s="45" t="n"/>
+      <c r="E47" s="46" t="n"/>
+      <c r="F47" s="45" t="n"/>
+      <c r="I47" s="46" t="n"/>
+      <c r="J47" s="45" t="n"/>
+      <c r="K47" s="46" t="n"/>
+      <c r="L47" s="45" t="n"/>
+      <c r="Q47" s="46" t="n"/>
+      <c r="R47" s="45" t="n"/>
+      <c r="V47" s="46" t="n"/>
+      <c r="W47" s="45" t="n"/>
+      <c r="Y47" s="46" t="n"/>
       <c r="Z47" s="7" t="n"/>
     </row>
     <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="6" t="n"/>
-      <c r="B48" s="40" t="n"/>
-      <c r="C48" s="41" t="n"/>
-      <c r="D48" s="41" t="n"/>
-      <c r="E48" s="42" t="n"/>
-      <c r="F48" s="40" t="n"/>
-      <c r="G48" s="41" t="n"/>
-      <c r="H48" s="41" t="n"/>
-      <c r="I48" s="42" t="n"/>
-      <c r="J48" s="40" t="n"/>
-      <c r="K48" s="42" t="n"/>
-      <c r="L48" s="40" t="n"/>
-      <c r="M48" s="41" t="n"/>
-      <c r="N48" s="41" t="n"/>
-      <c r="O48" s="41" t="n"/>
-      <c r="P48" s="41" t="n"/>
-      <c r="Q48" s="42" t="n"/>
-      <c r="R48" s="40" t="n"/>
-      <c r="S48" s="41" t="n"/>
-      <c r="T48" s="41" t="n"/>
-      <c r="U48" s="41" t="n"/>
-      <c r="V48" s="42" t="n"/>
-      <c r="W48" s="40" t="n"/>
-      <c r="X48" s="41" t="n"/>
-      <c r="Y48" s="42" t="n"/>
+      <c r="B48" s="41" t="n"/>
+      <c r="C48" s="42" t="n"/>
+      <c r="D48" s="42" t="n"/>
+      <c r="E48" s="43" t="n"/>
+      <c r="F48" s="41" t="n"/>
+      <c r="G48" s="42" t="n"/>
+      <c r="H48" s="42" t="n"/>
+      <c r="I48" s="43" t="n"/>
+      <c r="J48" s="41" t="n"/>
+      <c r="K48" s="43" t="n"/>
+      <c r="L48" s="41" t="n"/>
+      <c r="M48" s="42" t="n"/>
+      <c r="N48" s="42" t="n"/>
+      <c r="O48" s="42" t="n"/>
+      <c r="P48" s="42" t="n"/>
+      <c r="Q48" s="43" t="n"/>
+      <c r="R48" s="41" t="n"/>
+      <c r="S48" s="42" t="n"/>
+      <c r="T48" s="42" t="n"/>
+      <c r="U48" s="42" t="n"/>
+      <c r="V48" s="43" t="n"/>
+      <c r="W48" s="41" t="n"/>
+      <c r="X48" s="42" t="n"/>
+      <c r="Y48" s="43" t="n"/>
       <c r="Z48" s="7" t="n"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
@@ -1837,7 +1845,7 @@
     </row>
     <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="6" t="n"/>
-      <c r="Y50" s="46" t="inlineStr">
+      <c r="Y50" s="47" t="inlineStr">
         <is>
           <t>SUMA: 10.00 EUR + 4.00 USD</t>
         </is>
@@ -1867,168 +1875,168 @@
     </row>
     <row r="55" ht="12.75" customHeight="1">
       <c r="A55" s="6" t="n"/>
-      <c r="B55" s="37" t="inlineStr">
+      <c r="B55" s="38" t="inlineStr">
         <is>
           <t>Kierunek</t>
         </is>
       </c>
-      <c r="C55" s="38" t="n"/>
-      <c r="D55" s="38" t="n"/>
-      <c r="E55" s="39" t="n"/>
-      <c r="F55" s="37" t="inlineStr">
+      <c r="C55" s="39" t="n"/>
+      <c r="D55" s="39" t="n"/>
+      <c r="E55" s="40" t="n"/>
+      <c r="F55" s="38" t="inlineStr">
         <is>
           <t>Daty</t>
         </is>
       </c>
-      <c r="G55" s="38" t="n"/>
-      <c r="H55" s="38" t="n"/>
-      <c r="I55" s="39" t="n"/>
-      <c r="J55" s="37" t="inlineStr">
+      <c r="G55" s="39" t="n"/>
+      <c r="H55" s="39" t="n"/>
+      <c r="I55" s="40" t="n"/>
+      <c r="J55" s="38" t="inlineStr">
         <is>
           <t>Liczba nocy</t>
         </is>
       </c>
-      <c r="K55" s="39" t="n"/>
-      <c r="L55" s="37" t="inlineStr">
+      <c r="K55" s="40" t="n"/>
+      <c r="L55" s="38" t="inlineStr">
         <is>
           <t>Willa</t>
         </is>
       </c>
-      <c r="M55" s="38" t="n"/>
-      <c r="N55" s="38" t="n"/>
-      <c r="O55" s="38" t="n"/>
-      <c r="P55" s="38" t="n"/>
-      <c r="Q55" s="38" t="n"/>
-      <c r="R55" s="38" t="n"/>
-      <c r="S55" s="38" t="n"/>
-      <c r="T55" s="38" t="n"/>
-      <c r="U55" s="38" t="n"/>
-      <c r="V55" s="39" t="n"/>
-      <c r="W55" s="37" t="inlineStr">
+      <c r="M55" s="39" t="n"/>
+      <c r="N55" s="39" t="n"/>
+      <c r="O55" s="39" t="n"/>
+      <c r="P55" s="39" t="n"/>
+      <c r="Q55" s="39" t="n"/>
+      <c r="R55" s="39" t="n"/>
+      <c r="S55" s="39" t="n"/>
+      <c r="T55" s="39" t="n"/>
+      <c r="U55" s="39" t="n"/>
+      <c r="V55" s="40" t="n"/>
+      <c r="W55" s="38" t="inlineStr">
         <is>
           <t>Wyżywienie</t>
         </is>
       </c>
-      <c r="X55" s="38" t="n"/>
-      <c r="Y55" s="39" t="n"/>
+      <c r="X55" s="39" t="n"/>
+      <c r="Y55" s="40" t="n"/>
       <c r="Z55" s="7" t="n"/>
     </row>
     <row r="56" ht="12.75" customHeight="1">
       <c r="A56" s="6" t="n"/>
-      <c r="B56" s="40" t="n"/>
-      <c r="C56" s="41" t="n"/>
-      <c r="D56" s="41" t="n"/>
-      <c r="E56" s="42" t="n"/>
-      <c r="F56" s="40" t="n"/>
-      <c r="G56" s="41" t="n"/>
-      <c r="H56" s="41" t="n"/>
-      <c r="I56" s="42" t="n"/>
-      <c r="J56" s="40" t="n"/>
-      <c r="K56" s="42" t="n"/>
-      <c r="L56" s="40" t="n"/>
-      <c r="M56" s="41" t="n"/>
-      <c r="N56" s="41" t="n"/>
-      <c r="O56" s="41" t="n"/>
-      <c r="P56" s="41" t="n"/>
-      <c r="Q56" s="41" t="n"/>
-      <c r="R56" s="41" t="n"/>
-      <c r="S56" s="41" t="n"/>
-      <c r="T56" s="41" t="n"/>
-      <c r="U56" s="41" t="n"/>
-      <c r="V56" s="42" t="n"/>
-      <c r="W56" s="40" t="n"/>
-      <c r="X56" s="41" t="n"/>
-      <c r="Y56" s="42" t="n"/>
+      <c r="B56" s="41" t="n"/>
+      <c r="C56" s="42" t="n"/>
+      <c r="D56" s="42" t="n"/>
+      <c r="E56" s="43" t="n"/>
+      <c r="F56" s="41" t="n"/>
+      <c r="G56" s="42" t="n"/>
+      <c r="H56" s="42" t="n"/>
+      <c r="I56" s="43" t="n"/>
+      <c r="J56" s="41" t="n"/>
+      <c r="K56" s="43" t="n"/>
+      <c r="L56" s="41" t="n"/>
+      <c r="M56" s="42" t="n"/>
+      <c r="N56" s="42" t="n"/>
+      <c r="O56" s="42" t="n"/>
+      <c r="P56" s="42" t="n"/>
+      <c r="Q56" s="42" t="n"/>
+      <c r="R56" s="42" t="n"/>
+      <c r="S56" s="42" t="n"/>
+      <c r="T56" s="42" t="n"/>
+      <c r="U56" s="42" t="n"/>
+      <c r="V56" s="43" t="n"/>
+      <c r="W56" s="41" t="n"/>
+      <c r="X56" s="42" t="n"/>
+      <c r="Y56" s="43" t="n"/>
       <c r="Z56" s="7" t="n"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="6" t="n"/>
-      <c r="B57" s="43" t="inlineStr">
+      <c r="B57" s="44" t="inlineStr">
         <is>
           <t>Argentyna
 Rio Negro</t>
         </is>
       </c>
-      <c r="C57" s="38" t="n"/>
-      <c r="D57" s="38" t="n"/>
-      <c r="E57" s="39" t="n"/>
-      <c r="F57" s="43" t="inlineStr">
+      <c r="C57" s="39" t="n"/>
+      <c r="D57" s="39" t="n"/>
+      <c r="E57" s="40" t="n"/>
+      <c r="F57" s="44" t="inlineStr">
         <is>
           <t>2022-02-12 -
 2022-02-20</t>
         </is>
       </c>
-      <c r="G57" s="38" t="n"/>
-      <c r="H57" s="38" t="n"/>
-      <c r="I57" s="39" t="n"/>
-      <c r="J57" s="43" t="n">
+      <c r="G57" s="39" t="n"/>
+      <c r="H57" s="39" t="n"/>
+      <c r="I57" s="40" t="n"/>
+      <c r="J57" s="44" t="n">
         <v>8</v>
       </c>
-      <c r="K57" s="39" t="n"/>
-      <c r="L57" s="43" t="inlineStr">
+      <c r="K57" s="40" t="n"/>
+      <c r="L57" s="44" t="inlineStr">
         <is>
           <t>Willa Rio Negro</t>
         </is>
       </c>
-      <c r="M57" s="38" t="n"/>
-      <c r="N57" s="38" t="n"/>
-      <c r="O57" s="38" t="n"/>
-      <c r="P57" s="38" t="n"/>
-      <c r="Q57" s="38" t="n"/>
-      <c r="R57" s="38" t="n"/>
-      <c r="S57" s="38" t="n"/>
-      <c r="T57" s="38" t="n"/>
-      <c r="U57" s="38" t="n"/>
-      <c r="V57" s="39" t="n"/>
-      <c r="W57" s="43" t="inlineStr">
+      <c r="M57" s="39" t="n"/>
+      <c r="N57" s="39" t="n"/>
+      <c r="O57" s="39" t="n"/>
+      <c r="P57" s="39" t="n"/>
+      <c r="Q57" s="39" t="n"/>
+      <c r="R57" s="39" t="n"/>
+      <c r="S57" s="39" t="n"/>
+      <c r="T57" s="39" t="n"/>
+      <c r="U57" s="39" t="n"/>
+      <c r="V57" s="40" t="n"/>
+      <c r="W57" s="44" t="inlineStr">
         <is>
           <t>AI</t>
         </is>
       </c>
-      <c r="X57" s="38" t="n"/>
-      <c r="Y57" s="39" t="n"/>
+      <c r="X57" s="39" t="n"/>
+      <c r="Y57" s="40" t="n"/>
       <c r="Z57" s="7" t="n"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
       <c r="A58" s="6" t="n"/>
-      <c r="B58" s="44" t="n"/>
-      <c r="E58" s="45" t="n"/>
-      <c r="F58" s="44" t="n"/>
-      <c r="I58" s="45" t="n"/>
-      <c r="J58" s="44" t="n"/>
-      <c r="K58" s="45" t="n"/>
-      <c r="L58" s="44" t="n"/>
-      <c r="V58" s="45" t="n"/>
-      <c r="W58" s="44" t="n"/>
-      <c r="Y58" s="45" t="n"/>
+      <c r="B58" s="45" t="n"/>
+      <c r="E58" s="46" t="n"/>
+      <c r="F58" s="45" t="n"/>
+      <c r="I58" s="46" t="n"/>
+      <c r="J58" s="45" t="n"/>
+      <c r="K58" s="46" t="n"/>
+      <c r="L58" s="45" t="n"/>
+      <c r="V58" s="46" t="n"/>
+      <c r="W58" s="45" t="n"/>
+      <c r="Y58" s="46" t="n"/>
       <c r="Z58" s="7" t="n"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
       <c r="A59" s="6" t="n"/>
-      <c r="B59" s="40" t="n"/>
-      <c r="C59" s="41" t="n"/>
-      <c r="D59" s="41" t="n"/>
-      <c r="E59" s="42" t="n"/>
-      <c r="F59" s="40" t="n"/>
-      <c r="G59" s="41" t="n"/>
-      <c r="H59" s="41" t="n"/>
-      <c r="I59" s="42" t="n"/>
-      <c r="J59" s="40" t="n"/>
-      <c r="K59" s="42" t="n"/>
-      <c r="L59" s="40" t="n"/>
-      <c r="M59" s="41" t="n"/>
-      <c r="N59" s="41" t="n"/>
-      <c r="O59" s="41" t="n"/>
-      <c r="P59" s="41" t="n"/>
-      <c r="Q59" s="41" t="n"/>
-      <c r="R59" s="41" t="n"/>
-      <c r="S59" s="41" t="n"/>
-      <c r="T59" s="41" t="n"/>
-      <c r="U59" s="41" t="n"/>
-      <c r="V59" s="42" t="n"/>
-      <c r="W59" s="40" t="n"/>
-      <c r="X59" s="41" t="n"/>
-      <c r="Y59" s="42" t="n"/>
+      <c r="B59" s="41" t="n"/>
+      <c r="C59" s="42" t="n"/>
+      <c r="D59" s="42" t="n"/>
+      <c r="E59" s="43" t="n"/>
+      <c r="F59" s="41" t="n"/>
+      <c r="G59" s="42" t="n"/>
+      <c r="H59" s="42" t="n"/>
+      <c r="I59" s="43" t="n"/>
+      <c r="J59" s="41" t="n"/>
+      <c r="K59" s="43" t="n"/>
+      <c r="L59" s="41" t="n"/>
+      <c r="M59" s="42" t="n"/>
+      <c r="N59" s="42" t="n"/>
+      <c r="O59" s="42" t="n"/>
+      <c r="P59" s="42" t="n"/>
+      <c r="Q59" s="42" t="n"/>
+      <c r="R59" s="42" t="n"/>
+      <c r="S59" s="42" t="n"/>
+      <c r="T59" s="42" t="n"/>
+      <c r="U59" s="42" t="n"/>
+      <c r="V59" s="43" t="n"/>
+      <c r="W59" s="41" t="n"/>
+      <c r="X59" s="42" t="n"/>
+      <c r="Y59" s="43" t="n"/>
       <c r="Z59" s="7" t="n"/>
     </row>
     <row r="60" ht="12.75" customHeight="1">
@@ -2037,7 +2045,7 @@
     </row>
     <row r="61" ht="12.75" customHeight="1">
       <c r="A61" s="6" t="n"/>
-      <c r="Y61" s="46" t="inlineStr">
+      <c r="Y61" s="47" t="inlineStr">
         <is>
           <t>SUMA: 10.00 USD</t>
         </is>
@@ -2057,7 +2065,7 @@
       <c r="J62" s="19" t="n"/>
       <c r="K62" s="19" t="n"/>
       <c r="L62" s="20" t="n"/>
-      <c r="M62" s="47" t="inlineStr">
+      <c r="M62" s="48" t="inlineStr">
         <is>
           <t>1 / 3</t>
         </is>
@@ -2102,790 +2110,760 @@
       <c r="Z63" s="22" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="48" t="n"/>
-      <c r="B66" s="48" t="n"/>
-      <c r="C66" s="48" t="n"/>
-      <c r="D66" s="48" t="n"/>
-      <c r="E66" s="48" t="n"/>
-      <c r="F66" s="48" t="n"/>
-      <c r="G66" s="48" t="n"/>
-      <c r="H66" s="48" t="n"/>
-      <c r="I66" s="48" t="n"/>
-      <c r="J66" s="48" t="n"/>
-      <c r="K66" s="48" t="n"/>
-      <c r="L66" s="48" t="n"/>
-      <c r="M66" s="48" t="n"/>
-      <c r="N66" s="48" t="n"/>
-      <c r="O66" s="48" t="n"/>
-      <c r="P66" s="48" t="n"/>
-      <c r="Q66" s="48" t="n"/>
-      <c r="R66" s="48" t="n"/>
-      <c r="S66" s="48" t="n"/>
-      <c r="T66" s="48" t="n"/>
-      <c r="U66" s="48" t="n"/>
-      <c r="V66" s="48" t="n"/>
-      <c r="W66" s="48" t="n"/>
-      <c r="X66" s="48" t="n"/>
-      <c r="Y66" s="48" t="n"/>
-      <c r="Z66" s="48" t="n"/>
+      <c r="A66" s="49" t="n"/>
+      <c r="B66" s="49" t="n"/>
+      <c r="C66" s="49" t="n"/>
+      <c r="D66" s="49" t="n"/>
+      <c r="E66" s="49" t="n"/>
+      <c r="F66" s="49" t="n"/>
+      <c r="G66" s="49" t="n"/>
+      <c r="H66" s="49" t="n"/>
+      <c r="I66" s="49" t="n"/>
+      <c r="J66" s="49" t="n"/>
+      <c r="K66" s="49" t="n"/>
+      <c r="L66" s="49" t="n"/>
+      <c r="M66" s="49" t="n"/>
+      <c r="N66" s="49" t="n"/>
+      <c r="O66" s="49" t="n"/>
+      <c r="P66" s="49" t="n"/>
+      <c r="Q66" s="49" t="n"/>
+      <c r="R66" s="49" t="n"/>
+      <c r="S66" s="49" t="n"/>
+      <c r="T66" s="49" t="n"/>
+      <c r="U66" s="49" t="n"/>
+      <c r="V66" s="49" t="n"/>
+      <c r="W66" s="49" t="n"/>
+      <c r="X66" s="49" t="n"/>
+      <c r="Y66" s="49" t="n"/>
+      <c r="Z66" s="49" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="49" t="n"/>
-      <c r="Z67" s="50" t="n"/>
+      <c r="A67" s="50" t="n"/>
+      <c r="Z67" s="51" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="49" t="n"/>
-      <c r="Z68" s="50" t="n"/>
+      <c r="A68" s="50" t="n"/>
+      <c r="Z68" s="51" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="49" t="n"/>
-      <c r="Z69" s="50" t="n"/>
+      <c r="A69" s="50" t="n"/>
+      <c r="Z69" s="51" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="49" t="n"/>
-      <c r="Z70" s="50" t="n"/>
+      <c r="A70" s="50" t="n"/>
+      <c r="Z70" s="51" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="49" t="n"/>
+      <c r="A71" s="50" t="n"/>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BILETY LOTNICZE:</t>
-        </is>
-      </c>
-      <c r="Z71" s="50" t="n"/>
+          <t>PRZEJAZDY POCIĄGAMI:</t>
+        </is>
+      </c>
+      <c r="Z71" s="51" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="49" t="n"/>
-      <c r="Z72" s="50" t="n"/>
+      <c r="A72" s="50" t="n"/>
+      <c r="Z72" s="51" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="49" t="n"/>
-      <c r="B73" s="37" t="inlineStr">
-        <is>
-          <t>Trasa</t>
-        </is>
-      </c>
-      <c r="C73" s="38" t="n"/>
-      <c r="D73" s="38" t="n"/>
-      <c r="E73" s="39" t="n"/>
-      <c r="F73" s="37" t="inlineStr">
-        <is>
-          <t>Daty</t>
-        </is>
-      </c>
-      <c r="G73" s="38" t="n"/>
-      <c r="H73" s="38" t="n"/>
-      <c r="I73" s="39" t="n"/>
-      <c r="J73" s="37" t="inlineStr">
-        <is>
-          <t>Liczba nocy</t>
-        </is>
-      </c>
-      <c r="K73" s="39" t="n"/>
-      <c r="L73" s="37" t="inlineStr">
-        <is>
-          <t>Pociąg</t>
-        </is>
-      </c>
-      <c r="M73" s="38" t="n"/>
-      <c r="N73" s="38" t="n"/>
-      <c r="O73" s="38" t="n"/>
-      <c r="P73" s="38" t="n"/>
+      <c r="A73" s="50" t="n"/>
+      <c r="B73" s="38" t="inlineStr">
+        <is>
+          <t>Linia</t>
+        </is>
+      </c>
+      <c r="C73" s="39" t="n"/>
+      <c r="D73" s="39" t="n"/>
+      <c r="E73" s="40" t="n"/>
+      <c r="F73" s="38" t="inlineStr">
+        <is>
+          <t>Klasa</t>
+        </is>
+      </c>
+      <c r="G73" s="39" t="n"/>
+      <c r="H73" s="40" t="n"/>
+      <c r="I73" s="38" t="inlineStr">
+        <is>
+          <t>Liczba biletów</t>
+        </is>
+      </c>
+      <c r="J73" s="40" t="n"/>
+      <c r="K73" s="38" t="inlineStr">
+        <is>
+          <t>Szczegóły</t>
+        </is>
+      </c>
+      <c r="L73" s="39" t="n"/>
+      <c r="M73" s="39" t="n"/>
+      <c r="N73" s="39" t="n"/>
+      <c r="O73" s="39" t="n"/>
+      <c r="P73" s="39" t="n"/>
       <c r="Q73" s="39" t="n"/>
-      <c r="R73" s="37" t="inlineStr">
-        <is>
-          <t>Kabina</t>
-        </is>
-      </c>
-      <c r="S73" s="38" t="n"/>
-      <c r="T73" s="38" t="n"/>
-      <c r="U73" s="38" t="n"/>
+      <c r="R73" s="39" t="n"/>
+      <c r="S73" s="39" t="n"/>
+      <c r="T73" s="39" t="n"/>
+      <c r="U73" s="39" t="n"/>
       <c r="V73" s="39" t="n"/>
-      <c r="W73" s="37" t="inlineStr">
-        <is>
-          <t>Wyżywienie</t>
-        </is>
-      </c>
-      <c r="X73" s="38" t="n"/>
-      <c r="Y73" s="39" t="n"/>
-      <c r="Z73" s="50" t="n"/>
+      <c r="W73" s="39" t="n"/>
+      <c r="X73" s="39" t="n"/>
+      <c r="Y73" s="40" t="n"/>
+      <c r="Z73" s="51" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="49" t="n"/>
-      <c r="B74" s="40" t="n"/>
-      <c r="C74" s="41" t="n"/>
-      <c r="D74" s="41" t="n"/>
-      <c r="E74" s="42" t="n"/>
-      <c r="F74" s="40" t="n"/>
-      <c r="G74" s="41" t="n"/>
-      <c r="H74" s="41" t="n"/>
-      <c r="I74" s="42" t="n"/>
-      <c r="J74" s="40" t="n"/>
-      <c r="K74" s="42" t="n"/>
-      <c r="L74" s="40" t="n"/>
-      <c r="M74" s="41" t="n"/>
-      <c r="N74" s="41" t="n"/>
-      <c r="O74" s="41" t="n"/>
-      <c r="P74" s="41" t="n"/>
+      <c r="A74" s="50" t="n"/>
+      <c r="B74" s="41" t="n"/>
+      <c r="C74" s="42" t="n"/>
+      <c r="D74" s="42" t="n"/>
+      <c r="E74" s="43" t="n"/>
+      <c r="F74" s="41" t="n"/>
+      <c r="G74" s="42" t="n"/>
+      <c r="H74" s="43" t="n"/>
+      <c r="I74" s="41" t="n"/>
+      <c r="J74" s="43" t="n"/>
+      <c r="K74" s="41" t="n"/>
+      <c r="L74" s="42" t="n"/>
+      <c r="M74" s="42" t="n"/>
+      <c r="N74" s="42" t="n"/>
+      <c r="O74" s="42" t="n"/>
+      <c r="P74" s="42" t="n"/>
       <c r="Q74" s="42" t="n"/>
-      <c r="R74" s="40" t="n"/>
-      <c r="S74" s="41" t="n"/>
-      <c r="T74" s="41" t="n"/>
-      <c r="U74" s="41" t="n"/>
+      <c r="R74" s="42" t="n"/>
+      <c r="S74" s="42" t="n"/>
+      <c r="T74" s="42" t="n"/>
+      <c r="U74" s="42" t="n"/>
       <c r="V74" s="42" t="n"/>
-      <c r="W74" s="40" t="n"/>
-      <c r="X74" s="41" t="n"/>
-      <c r="Y74" s="42" t="n"/>
-      <c r="Z74" s="50" t="n"/>
+      <c r="W74" s="42" t="n"/>
+      <c r="X74" s="42" t="n"/>
+      <c r="Y74" s="43" t="n"/>
+      <c r="Z74" s="51" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" s="49" t="n"/>
-      <c r="B75" s="43" t="inlineStr">
-        <is>
-          <t>Warszawa -
-Paryż</t>
-        </is>
-      </c>
-      <c r="C75" s="38" t="n"/>
-      <c r="D75" s="38" t="n"/>
-      <c r="E75" s="39" t="n"/>
-      <c r="F75" s="43" t="inlineStr">
-        <is>
-          <t>2022-02-17 -
-2022-02-18</t>
-        </is>
-      </c>
-      <c r="G75" s="38" t="n"/>
-      <c r="H75" s="38" t="n"/>
-      <c r="I75" s="39" t="n"/>
-      <c r="J75" s="43" t="n">
+      <c r="A75" s="50" t="n"/>
+      <c r="B75" s="44" t="inlineStr">
+        <is>
+          <t>Emirates</t>
+        </is>
+      </c>
+      <c r="C75" s="39" t="n"/>
+      <c r="D75" s="39" t="n"/>
+      <c r="E75" s="40" t="n"/>
+      <c r="F75" s="44" t="inlineStr">
+        <is>
+          <t>Ekonomiczna</t>
+        </is>
+      </c>
+      <c r="G75" s="39" t="n"/>
+      <c r="H75" s="40" t="n"/>
+      <c r="I75" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="K75" s="39" t="n"/>
-      <c r="L75" s="43" t="inlineStr">
-        <is>
-          <t>Sobieski</t>
-        </is>
-      </c>
-      <c r="M75" s="38" t="n"/>
-      <c r="N75" s="38" t="n"/>
-      <c r="O75" s="38" t="n"/>
-      <c r="P75" s="38" t="n"/>
+      <c r="J75" s="40" t="n"/>
+      <c r="K75" s="44" t="inlineStr"/>
+      <c r="L75" s="39" t="n"/>
+      <c r="M75" s="39" t="n"/>
+      <c r="N75" s="39" t="n"/>
+      <c r="O75" s="39" t="n"/>
+      <c r="P75" s="39" t="n"/>
       <c r="Q75" s="39" t="n"/>
-      <c r="R75" s="43" t="inlineStr">
-        <is>
-          <t>Kabina wow</t>
-        </is>
-      </c>
-      <c r="S75" s="38" t="n"/>
-      <c r="T75" s="38" t="n"/>
-      <c r="U75" s="38" t="n"/>
+      <c r="R75" s="39" t="n"/>
+      <c r="S75" s="39" t="n"/>
+      <c r="T75" s="39" t="n"/>
+      <c r="U75" s="39" t="n"/>
       <c r="V75" s="39" t="n"/>
-      <c r="W75" s="43" t="inlineStr">
-        <is>
-          <t>HB</t>
-        </is>
-      </c>
-      <c r="X75" s="38" t="n"/>
-      <c r="Y75" s="39" t="n"/>
-      <c r="Z75" s="50" t="n"/>
+      <c r="W75" s="39" t="n"/>
+      <c r="X75" s="39" t="n"/>
+      <c r="Y75" s="40" t="n"/>
+      <c r="Z75" s="51" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" s="49" t="n"/>
-      <c r="B76" s="44" t="n"/>
-      <c r="E76" s="45" t="n"/>
-      <c r="F76" s="44" t="n"/>
+      <c r="A76" s="50" t="n"/>
+      <c r="B76" s="45" t="n"/>
+      <c r="E76" s="46" t="n"/>
+      <c r="F76" s="45" t="n"/>
+      <c r="H76" s="46" t="n"/>
       <c r="I76" s="45" t="n"/>
-      <c r="J76" s="44" t="n"/>
+      <c r="J76" s="46" t="n"/>
       <c r="K76" s="45" t="n"/>
-      <c r="L76" s="44" t="n"/>
-      <c r="Q76" s="45" t="n"/>
-      <c r="R76" s="44" t="n"/>
-      <c r="V76" s="45" t="n"/>
-      <c r="W76" s="44" t="n"/>
-      <c r="Y76" s="45" t="n"/>
-      <c r="Z76" s="50" t="n"/>
+      <c r="Y76" s="46" t="n"/>
+      <c r="Z76" s="51" t="n"/>
     </row>
     <row r="77">
-      <c r="A77" s="49" t="n"/>
-      <c r="B77" s="40" t="n"/>
-      <c r="C77" s="41" t="n"/>
-      <c r="D77" s="41" t="n"/>
-      <c r="E77" s="42" t="n"/>
-      <c r="F77" s="40" t="n"/>
-      <c r="G77" s="41" t="n"/>
-      <c r="H77" s="41" t="n"/>
-      <c r="I77" s="42" t="n"/>
-      <c r="J77" s="40" t="n"/>
-      <c r="K77" s="42" t="n"/>
-      <c r="L77" s="40" t="n"/>
-      <c r="M77" s="41" t="n"/>
-      <c r="N77" s="41" t="n"/>
-      <c r="O77" s="41" t="n"/>
-      <c r="P77" s="41" t="n"/>
+      <c r="A77" s="50" t="n"/>
+      <c r="B77" s="41" t="n"/>
+      <c r="C77" s="42" t="n"/>
+      <c r="D77" s="42" t="n"/>
+      <c r="E77" s="43" t="n"/>
+      <c r="F77" s="41" t="n"/>
+      <c r="G77" s="42" t="n"/>
+      <c r="H77" s="43" t="n"/>
+      <c r="I77" s="41" t="n"/>
+      <c r="J77" s="43" t="n"/>
+      <c r="K77" s="41" t="n"/>
+      <c r="L77" s="42" t="n"/>
+      <c r="M77" s="42" t="n"/>
+      <c r="N77" s="42" t="n"/>
+      <c r="O77" s="42" t="n"/>
+      <c r="P77" s="42" t="n"/>
       <c r="Q77" s="42" t="n"/>
-      <c r="R77" s="40" t="n"/>
-      <c r="S77" s="41" t="n"/>
-      <c r="T77" s="41" t="n"/>
-      <c r="U77" s="41" t="n"/>
+      <c r="R77" s="42" t="n"/>
+      <c r="S77" s="42" t="n"/>
+      <c r="T77" s="42" t="n"/>
+      <c r="U77" s="42" t="n"/>
       <c r="V77" s="42" t="n"/>
-      <c r="W77" s="40" t="n"/>
-      <c r="X77" s="41" t="n"/>
-      <c r="Y77" s="42" t="n"/>
-      <c r="Z77" s="50" t="n"/>
+      <c r="W77" s="42" t="n"/>
+      <c r="X77" s="42" t="n"/>
+      <c r="Y77" s="43" t="n"/>
+      <c r="Z77" s="51" t="n"/>
     </row>
     <row r="78">
-      <c r="A78" s="49" t="n"/>
-      <c r="Z78" s="50" t="n"/>
+      <c r="A78" s="50" t="n"/>
+      <c r="Z78" s="51" t="n"/>
     </row>
     <row r="79">
-      <c r="A79" s="49" t="n"/>
-      <c r="Y79" s="46" t="inlineStr">
-        <is>
-          <t>SUMA: 3.00 USD</t>
-        </is>
-      </c>
-      <c r="Z79" s="50" t="n"/>
+      <c r="A79" s="50" t="n"/>
+      <c r="Y79" s="47" t="inlineStr">
+        <is>
+          <t>SUMA: 10.00 USD</t>
+        </is>
+      </c>
+      <c r="Z79" s="51" t="n"/>
     </row>
     <row r="80">
-      <c r="A80" s="49" t="n"/>
-      <c r="Z80" s="50" t="n"/>
+      <c r="A80" s="50" t="n"/>
+      <c r="Z80" s="51" t="n"/>
     </row>
     <row r="81">
-      <c r="A81" s="49" t="n"/>
-      <c r="Z81" s="50" t="n"/>
+      <c r="A81" s="50" t="n"/>
+      <c r="Z81" s="51" t="n"/>
     </row>
     <row r="82">
-      <c r="A82" s="49" t="n"/>
+      <c r="A82" s="50" t="n"/>
       <c r="B82" t="inlineStr">
         <is>
           <t>UBEZPIECZENIA:</t>
         </is>
       </c>
-      <c r="Z82" s="50" t="n"/>
+      <c r="Z82" s="51" t="n"/>
     </row>
     <row r="83">
-      <c r="A83" s="49" t="n"/>
-      <c r="Z83" s="50" t="n"/>
+      <c r="A83" s="50" t="n"/>
+      <c r="Z83" s="51" t="n"/>
     </row>
     <row r="84">
-      <c r="A84" s="49" t="n"/>
-      <c r="B84" s="37" t="inlineStr">
+      <c r="A84" s="50" t="n"/>
+      <c r="B84" s="38" t="inlineStr">
         <is>
           <t>Ubezpieczenie</t>
         </is>
       </c>
-      <c r="C84" s="38" t="n"/>
-      <c r="D84" s="38" t="n"/>
-      <c r="E84" s="39" t="n"/>
-      <c r="F84" s="37" t="inlineStr">
+      <c r="C84" s="39" t="n"/>
+      <c r="D84" s="39" t="n"/>
+      <c r="E84" s="40" t="n"/>
+      <c r="F84" s="38" t="inlineStr">
         <is>
           <t>Wykupione</t>
         </is>
       </c>
-      <c r="G84" s="38" t="n"/>
-      <c r="H84" s="38" t="n"/>
-      <c r="I84" s="38" t="n"/>
-      <c r="J84" s="38" t="n"/>
-      <c r="K84" s="38" t="n"/>
-      <c r="L84" s="38" t="n"/>
-      <c r="M84" s="38" t="n"/>
-      <c r="N84" s="38" t="n"/>
-      <c r="O84" s="38" t="n"/>
-      <c r="P84" s="38" t="n"/>
-      <c r="Q84" s="38" t="n"/>
-      <c r="R84" s="38" t="n"/>
-      <c r="S84" s="38" t="n"/>
-      <c r="T84" s="38" t="n"/>
-      <c r="U84" s="38" t="n"/>
-      <c r="V84" s="38" t="n"/>
-      <c r="W84" s="38" t="n"/>
-      <c r="X84" s="38" t="n"/>
-      <c r="Y84" s="39" t="n"/>
-      <c r="Z84" s="50" t="n"/>
+      <c r="G84" s="39" t="n"/>
+      <c r="H84" s="39" t="n"/>
+      <c r="I84" s="39" t="n"/>
+      <c r="J84" s="39" t="n"/>
+      <c r="K84" s="39" t="n"/>
+      <c r="L84" s="39" t="n"/>
+      <c r="M84" s="39" t="n"/>
+      <c r="N84" s="39" t="n"/>
+      <c r="O84" s="39" t="n"/>
+      <c r="P84" s="39" t="n"/>
+      <c r="Q84" s="39" t="n"/>
+      <c r="R84" s="39" t="n"/>
+      <c r="S84" s="39" t="n"/>
+      <c r="T84" s="39" t="n"/>
+      <c r="U84" s="39" t="n"/>
+      <c r="V84" s="39" t="n"/>
+      <c r="W84" s="39" t="n"/>
+      <c r="X84" s="39" t="n"/>
+      <c r="Y84" s="40" t="n"/>
+      <c r="Z84" s="51" t="n"/>
     </row>
     <row r="85">
-      <c r="A85" s="49" t="n"/>
-      <c r="B85" s="40" t="n"/>
-      <c r="C85" s="41" t="n"/>
-      <c r="D85" s="41" t="n"/>
-      <c r="E85" s="42" t="n"/>
-      <c r="F85" s="40" t="n"/>
-      <c r="G85" s="41" t="n"/>
-      <c r="H85" s="41" t="n"/>
-      <c r="I85" s="41" t="n"/>
-      <c r="J85" s="41" t="n"/>
-      <c r="K85" s="41" t="n"/>
-      <c r="L85" s="41" t="n"/>
-      <c r="M85" s="41" t="n"/>
-      <c r="N85" s="41" t="n"/>
-      <c r="O85" s="41" t="n"/>
-      <c r="P85" s="41" t="n"/>
-      <c r="Q85" s="41" t="n"/>
-      <c r="R85" s="41" t="n"/>
-      <c r="S85" s="41" t="n"/>
-      <c r="T85" s="41" t="n"/>
-      <c r="U85" s="41" t="n"/>
-      <c r="V85" s="41" t="n"/>
-      <c r="W85" s="41" t="n"/>
-      <c r="X85" s="41" t="n"/>
-      <c r="Y85" s="42" t="n"/>
-      <c r="Z85" s="50" t="n"/>
+      <c r="A85" s="50" t="n"/>
+      <c r="B85" s="41" t="n"/>
+      <c r="C85" s="42" t="n"/>
+      <c r="D85" s="42" t="n"/>
+      <c r="E85" s="43" t="n"/>
+      <c r="F85" s="41" t="n"/>
+      <c r="G85" s="42" t="n"/>
+      <c r="H85" s="42" t="n"/>
+      <c r="I85" s="42" t="n"/>
+      <c r="J85" s="42" t="n"/>
+      <c r="K85" s="42" t="n"/>
+      <c r="L85" s="42" t="n"/>
+      <c r="M85" s="42" t="n"/>
+      <c r="N85" s="42" t="n"/>
+      <c r="O85" s="42" t="n"/>
+      <c r="P85" s="42" t="n"/>
+      <c r="Q85" s="42" t="n"/>
+      <c r="R85" s="42" t="n"/>
+      <c r="S85" s="42" t="n"/>
+      <c r="T85" s="42" t="n"/>
+      <c r="U85" s="42" t="n"/>
+      <c r="V85" s="42" t="n"/>
+      <c r="W85" s="42" t="n"/>
+      <c r="X85" s="42" t="n"/>
+      <c r="Y85" s="43" t="n"/>
+      <c r="Z85" s="51" t="n"/>
     </row>
     <row r="86">
-      <c r="A86" s="49" t="n"/>
-      <c r="B86" s="43" t="inlineStr">
+      <c r="A86" s="50" t="n"/>
+      <c r="B86" s="44" t="inlineStr">
         <is>
           <t>Podróżne</t>
         </is>
       </c>
-      <c r="C86" s="38" t="n"/>
-      <c r="D86" s="38" t="n"/>
-      <c r="E86" s="39" t="n"/>
-      <c r="F86" s="43" t="inlineStr">
-        <is>
-          <t>TAK</t>
-        </is>
-      </c>
-      <c r="G86" s="38" t="n"/>
-      <c r="H86" s="38" t="n"/>
-      <c r="I86" s="38" t="n"/>
-      <c r="J86" s="38" t="n"/>
-      <c r="K86" s="38" t="n"/>
-      <c r="L86" s="38" t="n"/>
-      <c r="M86" s="38" t="n"/>
-      <c r="N86" s="38" t="n"/>
-      <c r="O86" s="38" t="n"/>
-      <c r="P86" s="38" t="n"/>
-      <c r="Q86" s="38" t="n"/>
-      <c r="R86" s="38" t="n"/>
-      <c r="S86" s="38" t="n"/>
-      <c r="T86" s="38" t="n"/>
-      <c r="U86" s="38" t="n"/>
-      <c r="V86" s="38" t="n"/>
-      <c r="W86" s="38" t="n"/>
-      <c r="X86" s="38" t="n"/>
-      <c r="Y86" s="39" t="n"/>
-      <c r="Z86" s="50" t="n"/>
+      <c r="C86" s="39" t="n"/>
+      <c r="D86" s="39" t="n"/>
+      <c r="E86" s="40" t="n"/>
+      <c r="F86" s="44" t="inlineStr">
+        <is>
+          <t>NIE</t>
+        </is>
+      </c>
+      <c r="G86" s="39" t="n"/>
+      <c r="H86" s="39" t="n"/>
+      <c r="I86" s="39" t="n"/>
+      <c r="J86" s="39" t="n"/>
+      <c r="K86" s="39" t="n"/>
+      <c r="L86" s="39" t="n"/>
+      <c r="M86" s="39" t="n"/>
+      <c r="N86" s="39" t="n"/>
+      <c r="O86" s="39" t="n"/>
+      <c r="P86" s="39" t="n"/>
+      <c r="Q86" s="39" t="n"/>
+      <c r="R86" s="39" t="n"/>
+      <c r="S86" s="39" t="n"/>
+      <c r="T86" s="39" t="n"/>
+      <c r="U86" s="39" t="n"/>
+      <c r="V86" s="39" t="n"/>
+      <c r="W86" s="39" t="n"/>
+      <c r="X86" s="39" t="n"/>
+      <c r="Y86" s="40" t="n"/>
+      <c r="Z86" s="51" t="n"/>
     </row>
     <row r="87">
-      <c r="A87" s="49" t="n"/>
-      <c r="B87" s="44" t="n"/>
-      <c r="E87" s="45" t="n"/>
-      <c r="F87" s="44" t="n"/>
-      <c r="Y87" s="45" t="n"/>
-      <c r="Z87" s="50" t="n"/>
+      <c r="A87" s="50" t="n"/>
+      <c r="B87" s="45" t="n"/>
+      <c r="E87" s="46" t="n"/>
+      <c r="F87" s="45" t="n"/>
+      <c r="Y87" s="46" t="n"/>
+      <c r="Z87" s="51" t="n"/>
     </row>
     <row r="88">
-      <c r="A88" s="49" t="n"/>
-      <c r="B88" s="40" t="n"/>
-      <c r="C88" s="41" t="n"/>
-      <c r="D88" s="41" t="n"/>
-      <c r="E88" s="42" t="n"/>
-      <c r="F88" s="40" t="n"/>
-      <c r="G88" s="41" t="n"/>
-      <c r="H88" s="41" t="n"/>
-      <c r="I88" s="41" t="n"/>
-      <c r="J88" s="41" t="n"/>
-      <c r="K88" s="41" t="n"/>
-      <c r="L88" s="41" t="n"/>
-      <c r="M88" s="41" t="n"/>
-      <c r="N88" s="41" t="n"/>
-      <c r="O88" s="41" t="n"/>
-      <c r="P88" s="41" t="n"/>
-      <c r="Q88" s="41" t="n"/>
-      <c r="R88" s="41" t="n"/>
-      <c r="S88" s="41" t="n"/>
-      <c r="T88" s="41" t="n"/>
-      <c r="U88" s="41" t="n"/>
-      <c r="V88" s="41" t="n"/>
-      <c r="W88" s="41" t="n"/>
-      <c r="X88" s="41" t="n"/>
-      <c r="Y88" s="42" t="n"/>
-      <c r="Z88" s="50" t="n"/>
+      <c r="A88" s="50" t="n"/>
+      <c r="B88" s="41" t="n"/>
+      <c r="C88" s="42" t="n"/>
+      <c r="D88" s="42" t="n"/>
+      <c r="E88" s="43" t="n"/>
+      <c r="F88" s="41" t="n"/>
+      <c r="G88" s="42" t="n"/>
+      <c r="H88" s="42" t="n"/>
+      <c r="I88" s="42" t="n"/>
+      <c r="J88" s="42" t="n"/>
+      <c r="K88" s="42" t="n"/>
+      <c r="L88" s="42" t="n"/>
+      <c r="M88" s="42" t="n"/>
+      <c r="N88" s="42" t="n"/>
+      <c r="O88" s="42" t="n"/>
+      <c r="P88" s="42" t="n"/>
+      <c r="Q88" s="42" t="n"/>
+      <c r="R88" s="42" t="n"/>
+      <c r="S88" s="42" t="n"/>
+      <c r="T88" s="42" t="n"/>
+      <c r="U88" s="42" t="n"/>
+      <c r="V88" s="42" t="n"/>
+      <c r="W88" s="42" t="n"/>
+      <c r="X88" s="42" t="n"/>
+      <c r="Y88" s="43" t="n"/>
+      <c r="Z88" s="51" t="n"/>
     </row>
     <row r="89">
-      <c r="A89" s="49" t="n"/>
-      <c r="B89" s="43" t="inlineStr">
+      <c r="A89" s="50" t="n"/>
+      <c r="B89" s="44" t="inlineStr">
         <is>
           <t>Kosztów rezygnacji</t>
         </is>
       </c>
-      <c r="C89" s="38" t="n"/>
-      <c r="D89" s="38" t="n"/>
-      <c r="E89" s="39" t="n"/>
-      <c r="F89" s="43" t="inlineStr">
+      <c r="C89" s="39" t="n"/>
+      <c r="D89" s="39" t="n"/>
+      <c r="E89" s="40" t="n"/>
+      <c r="F89" s="44" t="inlineStr">
         <is>
           <t>NIE</t>
         </is>
       </c>
-      <c r="G89" s="38" t="n"/>
-      <c r="H89" s="38" t="n"/>
-      <c r="I89" s="38" t="n"/>
-      <c r="J89" s="38" t="n"/>
-      <c r="K89" s="38" t="n"/>
-      <c r="L89" s="38" t="n"/>
-      <c r="M89" s="38" t="n"/>
-      <c r="N89" s="38" t="n"/>
-      <c r="O89" s="38" t="n"/>
-      <c r="P89" s="38" t="n"/>
-      <c r="Q89" s="38" t="n"/>
-      <c r="R89" s="38" t="n"/>
-      <c r="S89" s="38" t="n"/>
-      <c r="T89" s="38" t="n"/>
-      <c r="U89" s="38" t="n"/>
-      <c r="V89" s="38" t="n"/>
-      <c r="W89" s="38" t="n"/>
-      <c r="X89" s="38" t="n"/>
-      <c r="Y89" s="39" t="n"/>
-      <c r="Z89" s="50" t="n"/>
+      <c r="G89" s="39" t="n"/>
+      <c r="H89" s="39" t="n"/>
+      <c r="I89" s="39" t="n"/>
+      <c r="J89" s="39" t="n"/>
+      <c r="K89" s="39" t="n"/>
+      <c r="L89" s="39" t="n"/>
+      <c r="M89" s="39" t="n"/>
+      <c r="N89" s="39" t="n"/>
+      <c r="O89" s="39" t="n"/>
+      <c r="P89" s="39" t="n"/>
+      <c r="Q89" s="39" t="n"/>
+      <c r="R89" s="39" t="n"/>
+      <c r="S89" s="39" t="n"/>
+      <c r="T89" s="39" t="n"/>
+      <c r="U89" s="39" t="n"/>
+      <c r="V89" s="39" t="n"/>
+      <c r="W89" s="39" t="n"/>
+      <c r="X89" s="39" t="n"/>
+      <c r="Y89" s="40" t="n"/>
+      <c r="Z89" s="51" t="n"/>
     </row>
     <row r="90">
-      <c r="A90" s="49" t="n"/>
-      <c r="B90" s="44" t="n"/>
-      <c r="E90" s="45" t="n"/>
-      <c r="F90" s="44" t="n"/>
-      <c r="Y90" s="45" t="n"/>
-      <c r="Z90" s="50" t="n"/>
+      <c r="A90" s="50" t="n"/>
+      <c r="B90" s="45" t="n"/>
+      <c r="E90" s="46" t="n"/>
+      <c r="F90" s="45" t="n"/>
+      <c r="Y90" s="46" t="n"/>
+      <c r="Z90" s="51" t="n"/>
     </row>
     <row r="91">
-      <c r="A91" s="49" t="n"/>
-      <c r="B91" s="40" t="n"/>
-      <c r="C91" s="41" t="n"/>
-      <c r="D91" s="41" t="n"/>
-      <c r="E91" s="42" t="n"/>
-      <c r="F91" s="40" t="n"/>
-      <c r="G91" s="41" t="n"/>
-      <c r="H91" s="41" t="n"/>
-      <c r="I91" s="41" t="n"/>
-      <c r="J91" s="41" t="n"/>
-      <c r="K91" s="41" t="n"/>
-      <c r="L91" s="41" t="n"/>
-      <c r="M91" s="41" t="n"/>
-      <c r="N91" s="41" t="n"/>
-      <c r="O91" s="41" t="n"/>
-      <c r="P91" s="41" t="n"/>
-      <c r="Q91" s="41" t="n"/>
-      <c r="R91" s="41" t="n"/>
-      <c r="S91" s="41" t="n"/>
-      <c r="T91" s="41" t="n"/>
-      <c r="U91" s="41" t="n"/>
-      <c r="V91" s="41" t="n"/>
-      <c r="W91" s="41" t="n"/>
-      <c r="X91" s="41" t="n"/>
-      <c r="Y91" s="42" t="n"/>
-      <c r="Z91" s="50" t="n"/>
+      <c r="A91" s="50" t="n"/>
+      <c r="B91" s="41" t="n"/>
+      <c r="C91" s="42" t="n"/>
+      <c r="D91" s="42" t="n"/>
+      <c r="E91" s="43" t="n"/>
+      <c r="F91" s="41" t="n"/>
+      <c r="G91" s="42" t="n"/>
+      <c r="H91" s="42" t="n"/>
+      <c r="I91" s="42" t="n"/>
+      <c r="J91" s="42" t="n"/>
+      <c r="K91" s="42" t="n"/>
+      <c r="L91" s="42" t="n"/>
+      <c r="M91" s="42" t="n"/>
+      <c r="N91" s="42" t="n"/>
+      <c r="O91" s="42" t="n"/>
+      <c r="P91" s="42" t="n"/>
+      <c r="Q91" s="42" t="n"/>
+      <c r="R91" s="42" t="n"/>
+      <c r="S91" s="42" t="n"/>
+      <c r="T91" s="42" t="n"/>
+      <c r="U91" s="42" t="n"/>
+      <c r="V91" s="42" t="n"/>
+      <c r="W91" s="42" t="n"/>
+      <c r="X91" s="42" t="n"/>
+      <c r="Y91" s="43" t="n"/>
+      <c r="Z91" s="51" t="n"/>
     </row>
     <row r="92">
-      <c r="A92" s="49" t="n"/>
-      <c r="Z92" s="50" t="n"/>
+      <c r="A92" s="50" t="n"/>
+      <c r="Z92" s="51" t="n"/>
     </row>
     <row r="93">
-      <c r="A93" s="49" t="n"/>
-      <c r="Y93" s="46" t="inlineStr">
-        <is>
-          <t>SUMA: 4.00 EUR</t>
-        </is>
-      </c>
-      <c r="Z93" s="50" t="n"/>
+      <c r="A93" s="50" t="n"/>
+      <c r="Y93" s="47" t="inlineStr"/>
+      <c r="Z93" s="51" t="n"/>
     </row>
     <row r="94">
-      <c r="A94" s="49" t="n"/>
-      <c r="Z94" s="50" t="n"/>
+      <c r="A94" s="50" t="n"/>
+      <c r="Z94" s="51" t="n"/>
     </row>
     <row r="95">
-      <c r="A95" s="49" t="n"/>
-      <c r="Z95" s="50" t="n"/>
+      <c r="A95" s="50" t="n"/>
+      <c r="Z95" s="51" t="n"/>
     </row>
     <row r="96">
-      <c r="A96" s="49" t="n"/>
-      <c r="Z96" s="50" t="n"/>
+      <c r="A96" s="50" t="n"/>
+      <c r="Z96" s="51" t="n"/>
     </row>
     <row r="97">
-      <c r="A97" s="49" t="n"/>
-      <c r="Z97" s="50" t="n"/>
+      <c r="A97" s="50" t="n"/>
+      <c r="Z97" s="51" t="n"/>
     </row>
     <row r="98">
-      <c r="A98" s="49" t="n"/>
-      <c r="Z98" s="50" t="n"/>
+      <c r="A98" s="50" t="n"/>
+      <c r="Z98" s="51" t="n"/>
     </row>
     <row r="99">
-      <c r="A99" s="49" t="n"/>
-      <c r="Z99" s="50" t="n"/>
+      <c r="A99" s="50" t="n"/>
+      <c r="Z99" s="51" t="n"/>
     </row>
     <row r="100">
-      <c r="A100" s="49" t="n"/>
-      <c r="Z100" s="50" t="n"/>
+      <c r="A100" s="50" t="n"/>
+      <c r="Z100" s="51" t="n"/>
     </row>
     <row r="101">
-      <c r="A101" s="49" t="n"/>
-      <c r="Z101" s="50" t="n"/>
+      <c r="A101" s="50" t="n"/>
+      <c r="Z101" s="51" t="n"/>
     </row>
     <row r="102">
-      <c r="A102" s="49" t="n"/>
-      <c r="Z102" s="50" t="n"/>
+      <c r="A102" s="50" t="n"/>
+      <c r="Z102" s="51" t="n"/>
     </row>
     <row r="103">
-      <c r="A103" s="49" t="n"/>
-      <c r="Z103" s="50" t="n"/>
+      <c r="A103" s="50" t="n"/>
+      <c r="Z103" s="51" t="n"/>
     </row>
     <row r="104">
-      <c r="A104" s="49" t="n"/>
-      <c r="Z104" s="50" t="n"/>
+      <c r="A104" s="50" t="n"/>
+      <c r="Z104" s="51" t="n"/>
     </row>
     <row r="105">
-      <c r="A105" s="49" t="n"/>
-      <c r="Z105" s="50" t="n"/>
+      <c r="A105" s="50" t="n"/>
+      <c r="Z105" s="51" t="n"/>
     </row>
     <row r="106">
-      <c r="A106" s="49" t="n"/>
-      <c r="Z106" s="50" t="n"/>
+      <c r="A106" s="50" t="n"/>
+      <c r="Z106" s="51" t="n"/>
     </row>
     <row r="107">
-      <c r="A107" s="49" t="n"/>
-      <c r="Z107" s="50" t="n"/>
+      <c r="A107" s="50" t="n"/>
+      <c r="Z107" s="51" t="n"/>
     </row>
     <row r="108">
-      <c r="A108" s="49" t="n"/>
-      <c r="Z108" s="50" t="n"/>
+      <c r="A108" s="50" t="n"/>
+      <c r="Z108" s="51" t="n"/>
     </row>
     <row r="109">
-      <c r="A109" s="49" t="n"/>
-      <c r="Z109" s="50" t="n"/>
+      <c r="A109" s="50" t="n"/>
+      <c r="Z109" s="51" t="n"/>
     </row>
     <row r="110">
-      <c r="A110" s="49" t="n"/>
-      <c r="Z110" s="50" t="n"/>
+      <c r="A110" s="50" t="n"/>
+      <c r="Z110" s="51" t="n"/>
     </row>
     <row r="111">
-      <c r="A111" s="49" t="n"/>
-      <c r="Z111" s="50" t="n"/>
+      <c r="A111" s="50" t="n"/>
+      <c r="Z111" s="51" t="n"/>
     </row>
     <row r="112">
-      <c r="A112" s="49" t="n"/>
-      <c r="Z112" s="50" t="n"/>
+      <c r="A112" s="50" t="n"/>
+      <c r="Z112" s="51" t="n"/>
     </row>
     <row r="113">
-      <c r="A113" s="49" t="n"/>
-      <c r="Z113" s="50" t="n"/>
+      <c r="A113" s="50" t="n"/>
+      <c r="Z113" s="51" t="n"/>
     </row>
     <row r="114">
-      <c r="A114" s="49" t="n"/>
-      <c r="Z114" s="50" t="n"/>
+      <c r="A114" s="50" t="n"/>
+      <c r="Z114" s="51" t="n"/>
     </row>
     <row r="115">
-      <c r="A115" s="49" t="n"/>
-      <c r="Z115" s="50" t="n"/>
+      <c r="A115" s="50" t="n"/>
+      <c r="Z115" s="51" t="n"/>
     </row>
     <row r="116">
-      <c r="A116" s="49" t="n"/>
-      <c r="Z116" s="50" t="n"/>
+      <c r="A116" s="50" t="n"/>
+      <c r="Z116" s="51" t="n"/>
     </row>
     <row r="117">
-      <c r="A117" s="49" t="n"/>
-      <c r="Z117" s="50" t="n"/>
+      <c r="A117" s="50" t="n"/>
+      <c r="Z117" s="51" t="n"/>
     </row>
     <row r="118">
-      <c r="A118" s="49" t="n"/>
-      <c r="Z118" s="50" t="n"/>
+      <c r="A118" s="50" t="n"/>
+      <c r="Z118" s="51" t="n"/>
     </row>
     <row r="119">
-      <c r="A119" s="49" t="n"/>
-      <c r="Z119" s="50" t="n"/>
+      <c r="A119" s="50" t="n"/>
+      <c r="Z119" s="51" t="n"/>
     </row>
     <row r="120">
-      <c r="A120" s="49" t="n"/>
-      <c r="Z120" s="50" t="n"/>
+      <c r="A120" s="50" t="n"/>
+      <c r="Z120" s="51" t="n"/>
     </row>
     <row r="121">
-      <c r="A121" s="49" t="n"/>
-      <c r="Z121" s="50" t="n"/>
+      <c r="A121" s="50" t="n"/>
+      <c r="Z121" s="51" t="n"/>
     </row>
     <row r="122">
-      <c r="A122" s="49" t="n"/>
-      <c r="Z122" s="50" t="n"/>
+      <c r="A122" s="50" t="n"/>
+      <c r="Z122" s="51" t="n"/>
     </row>
     <row r="123">
-      <c r="A123" s="49" t="n"/>
-      <c r="Z123" s="50" t="n"/>
+      <c r="A123" s="50" t="n"/>
+      <c r="Z123" s="51" t="n"/>
     </row>
     <row r="124">
-      <c r="A124" s="49" t="n"/>
-      <c r="Z124" s="50" t="n"/>
+      <c r="A124" s="50" t="n"/>
+      <c r="Z124" s="51" t="n"/>
     </row>
     <row r="125">
-      <c r="A125" s="49" t="n"/>
-      <c r="M125" s="51" t="inlineStr">
+      <c r="A125" s="50" t="n"/>
+      <c r="M125" s="52" t="inlineStr">
         <is>
           <t>2 / 3</t>
         </is>
       </c>
-      <c r="Z125" s="50" t="n"/>
+      <c r="Z125" s="51" t="n"/>
     </row>
     <row r="126">
-      <c r="A126" s="52" t="n"/>
-      <c r="B126" s="52" t="n"/>
-      <c r="C126" s="52" t="n"/>
-      <c r="D126" s="52" t="n"/>
-      <c r="E126" s="52" t="n"/>
-      <c r="F126" s="52" t="n"/>
-      <c r="G126" s="52" t="n"/>
-      <c r="H126" s="52" t="n"/>
-      <c r="I126" s="52" t="n"/>
-      <c r="J126" s="52" t="n"/>
-      <c r="K126" s="52" t="n"/>
-      <c r="L126" s="52" t="n"/>
-      <c r="O126" s="52" t="n"/>
-      <c r="P126" s="52" t="n"/>
-      <c r="Q126" s="52" t="n"/>
-      <c r="R126" s="52" t="n"/>
-      <c r="S126" s="52" t="n"/>
-      <c r="T126" s="52" t="n"/>
-      <c r="U126" s="52" t="n"/>
-      <c r="V126" s="52" t="n"/>
-      <c r="W126" s="52" t="n"/>
-      <c r="X126" s="52" t="n"/>
-      <c r="Y126" s="52" t="n"/>
-      <c r="Z126" s="52" t="n"/>
+      <c r="A126" s="53" t="n"/>
+      <c r="B126" s="53" t="n"/>
+      <c r="C126" s="53" t="n"/>
+      <c r="D126" s="53" t="n"/>
+      <c r="E126" s="53" t="n"/>
+      <c r="F126" s="53" t="n"/>
+      <c r="G126" s="53" t="n"/>
+      <c r="H126" s="53" t="n"/>
+      <c r="I126" s="53" t="n"/>
+      <c r="J126" s="53" t="n"/>
+      <c r="K126" s="53" t="n"/>
+      <c r="L126" s="53" t="n"/>
+      <c r="O126" s="53" t="n"/>
+      <c r="P126" s="53" t="n"/>
+      <c r="Q126" s="53" t="n"/>
+      <c r="R126" s="53" t="n"/>
+      <c r="S126" s="53" t="n"/>
+      <c r="T126" s="53" t="n"/>
+      <c r="U126" s="53" t="n"/>
+      <c r="V126" s="53" t="n"/>
+      <c r="W126" s="53" t="n"/>
+      <c r="X126" s="53" t="n"/>
+      <c r="Y126" s="53" t="n"/>
+      <c r="Z126" s="53" t="n"/>
     </row>
     <row r="129">
-      <c r="A129" s="48" t="n"/>
-      <c r="B129" s="48" t="n"/>
-      <c r="C129" s="48" t="n"/>
-      <c r="D129" s="48" t="n"/>
-      <c r="E129" s="48" t="n"/>
-      <c r="F129" s="48" t="n"/>
-      <c r="G129" s="48" t="n"/>
-      <c r="H129" s="48" t="n"/>
-      <c r="I129" s="48" t="n"/>
-      <c r="J129" s="48" t="n"/>
-      <c r="K129" s="48" t="n"/>
-      <c r="L129" s="48" t="n"/>
-      <c r="M129" s="48" t="n"/>
-      <c r="N129" s="48" t="n"/>
-      <c r="O129" s="48" t="n"/>
-      <c r="P129" s="48" t="n"/>
-      <c r="Q129" s="48" t="n"/>
-      <c r="R129" s="48" t="n"/>
-      <c r="S129" s="48" t="n"/>
-      <c r="T129" s="48" t="n"/>
-      <c r="U129" s="48" t="n"/>
-      <c r="V129" s="48" t="n"/>
-      <c r="W129" s="48" t="n"/>
-      <c r="X129" s="48" t="n"/>
-      <c r="Y129" s="48" t="n"/>
-      <c r="Z129" s="48" t="n"/>
+      <c r="A129" s="49" t="n"/>
+      <c r="B129" s="49" t="n"/>
+      <c r="C129" s="49" t="n"/>
+      <c r="D129" s="49" t="n"/>
+      <c r="E129" s="49" t="n"/>
+      <c r="F129" s="49" t="n"/>
+      <c r="G129" s="49" t="n"/>
+      <c r="H129" s="49" t="n"/>
+      <c r="I129" s="49" t="n"/>
+      <c r="J129" s="49" t="n"/>
+      <c r="K129" s="49" t="n"/>
+      <c r="L129" s="49" t="n"/>
+      <c r="M129" s="49" t="n"/>
+      <c r="N129" s="49" t="n"/>
+      <c r="O129" s="49" t="n"/>
+      <c r="P129" s="49" t="n"/>
+      <c r="Q129" s="49" t="n"/>
+      <c r="R129" s="49" t="n"/>
+      <c r="S129" s="49" t="n"/>
+      <c r="T129" s="49" t="n"/>
+      <c r="U129" s="49" t="n"/>
+      <c r="V129" s="49" t="n"/>
+      <c r="W129" s="49" t="n"/>
+      <c r="X129" s="49" t="n"/>
+      <c r="Y129" s="49" t="n"/>
+      <c r="Z129" s="49" t="n"/>
     </row>
     <row r="130">
-      <c r="A130" s="49" t="n"/>
-      <c r="Z130" s="50" t="n"/>
+      <c r="A130" s="50" t="n"/>
+      <c r="Z130" s="51" t="n"/>
     </row>
     <row r="131">
-      <c r="A131" s="49" t="n"/>
-      <c r="Z131" s="50" t="n"/>
+      <c r="A131" s="50" t="n"/>
+      <c r="Z131" s="51" t="n"/>
     </row>
     <row r="132">
-      <c r="A132" s="49" t="n"/>
-      <c r="Z132" s="50" t="n"/>
+      <c r="A132" s="50" t="n"/>
+      <c r="Z132" s="51" t="n"/>
     </row>
     <row r="133">
-      <c r="A133" s="49" t="n"/>
-      <c r="Z133" s="50" t="n"/>
+      <c r="A133" s="50" t="n"/>
+      <c r="Z133" s="51" t="n"/>
     </row>
     <row r="134">
-      <c r="A134" s="49" t="n"/>
-      <c r="Z134" s="50" t="n"/>
+      <c r="A134" s="50" t="n"/>
+      <c r="Z134" s="51" t="n"/>
     </row>
     <row r="135">
-      <c r="A135" s="49" t="n"/>
-      <c r="Z135" s="50" t="n"/>
+      <c r="A135" s="50" t="n"/>
+      <c r="Z135" s="51" t="n"/>
     </row>
     <row r="136">
-      <c r="A136" s="49" t="n"/>
-      <c r="B136" s="53" t="inlineStr">
-        <is>
-          <t>CENA OGÓLNA: 14.0 EUR + 17.0 USD</t>
-        </is>
-      </c>
-      <c r="Z136" s="50" t="n"/>
+      <c r="A136" s="50" t="n"/>
+      <c r="B136" s="54" t="inlineStr">
+        <is>
+          <t>CENA OGÓLNA: 10.0 EUR + 24.0 USD</t>
+        </is>
+      </c>
+      <c r="Z136" s="51" t="n"/>
     </row>
     <row r="137">
-      <c r="A137" s="49" t="n"/>
-      <c r="Z137" s="50" t="n"/>
+      <c r="A137" s="50" t="n"/>
+      <c r="Z137" s="51" t="n"/>
     </row>
     <row r="138">
-      <c r="A138" s="49" t="n"/>
-      <c r="Z138" s="50" t="n"/>
+      <c r="A138" s="50" t="n"/>
+      <c r="Z138" s="51" t="n"/>
     </row>
     <row r="139">
-      <c r="A139" s="49" t="n"/>
-      <c r="Z139" s="50" t="n"/>
+      <c r="A139" s="50" t="n"/>
+      <c r="Z139" s="51" t="n"/>
     </row>
     <row r="140">
-      <c r="A140" s="49" t="n"/>
-      <c r="B140" s="54" t="inlineStr">
+      <c r="A140" s="50" t="n"/>
+      <c r="B140" s="55" t="inlineStr">
         <is>
           <t>Płatność na konto EUR:</t>
         </is>
       </c>
-      <c r="M140" s="35" t="inlineStr">
+      <c r="M140" s="36" t="inlineStr">
         <is>
           <t>12 3456 7890 1234 5678 9012 3456</t>
         </is>
       </c>
-      <c r="Z140" s="50" t="n"/>
+      <c r="Z140" s="51" t="n"/>
     </row>
     <row r="141">
-      <c r="A141" s="49" t="n"/>
-      <c r="B141" s="54" t="inlineStr">
+      <c r="A141" s="50" t="n"/>
+      <c r="B141" s="55" t="inlineStr">
         <is>
           <t>Płatność na konto USD:</t>
         </is>
       </c>
-      <c r="M141" s="35" t="inlineStr">
+      <c r="M141" s="36" t="inlineStr">
         <is>
           <t>12 3456 7890 1234 5678 9012 3450</t>
         </is>
       </c>
-      <c r="Z141" s="50" t="n"/>
+      <c r="Z141" s="51" t="n"/>
     </row>
     <row r="142">
-      <c r="A142" s="49" t="n"/>
-      <c r="Z142" s="50" t="n"/>
+      <c r="A142" s="50" t="n"/>
+      <c r="Z142" s="51" t="n"/>
     </row>
     <row r="143">
-      <c r="A143" s="49" t="n"/>
-      <c r="Z143" s="50" t="n"/>
+      <c r="A143" s="50" t="n"/>
+      <c r="Z143" s="51" t="n"/>
     </row>
     <row r="144">
-      <c r="A144" s="49" t="n"/>
-      <c r="B144" s="55" t="inlineStr">
+      <c r="A144" s="50" t="n"/>
+      <c r="B144" s="56" t="inlineStr">
         <is>
           <t>Płatność zgodnie z kursem sprzedaży w Santander Bank Polska S.A. w dniu wpłaty.</t>
         </is>
       </c>
-      <c r="Z144" s="50" t="n"/>
+      <c r="Z144" s="51" t="n"/>
     </row>
     <row r="145">
-      <c r="A145" s="49" t="n"/>
-      <c r="B145" s="55" t="inlineStr">
+      <c r="A145" s="50" t="n"/>
+      <c r="B145" s="56" t="inlineStr">
         <is>
           <t>Kod SWIFT: WBKPPLPPXXX</t>
         </is>
       </c>
-      <c r="Z145" s="50" t="n"/>
+      <c r="Z145" s="51" t="n"/>
     </row>
     <row r="146">
-      <c r="A146" s="49" t="n"/>
-      <c r="Z146" s="50" t="n"/>
+      <c r="A146" s="50" t="n"/>
+      <c r="Z146" s="51" t="n"/>
     </row>
     <row r="147">
-      <c r="A147" s="49" t="n"/>
-      <c r="Z147" s="50" t="n"/>
+      <c r="A147" s="50" t="n"/>
+      <c r="Z147" s="51" t="n"/>
     </row>
     <row r="148">
-      <c r="A148" s="49" t="n"/>
-      <c r="B148" s="35" t="inlineStr">
+      <c r="A148" s="50" t="n"/>
+      <c r="B148" s="36" t="inlineStr">
         <is>
           <t xml:space="preserve">Tytuł wpłaty: </t>
         </is>
@@ -2895,164 +2873,164 @@
           <t>Piotr Klim - IST/220216/01</t>
         </is>
       </c>
-      <c r="Z148" s="50" t="n"/>
+      <c r="Z148" s="51" t="n"/>
     </row>
     <row r="149">
-      <c r="A149" s="49" t="n"/>
-      <c r="Z149" s="50" t="n"/>
+      <c r="A149" s="50" t="n"/>
+      <c r="Z149" s="51" t="n"/>
     </row>
     <row r="150">
-      <c r="A150" s="49" t="n"/>
-      <c r="Z150" s="50" t="n"/>
+      <c r="A150" s="50" t="n"/>
+      <c r="Z150" s="51" t="n"/>
     </row>
     <row r="151">
-      <c r="A151" s="49" t="n"/>
-      <c r="Z151" s="50" t="n"/>
+      <c r="A151" s="50" t="n"/>
+      <c r="Z151" s="51" t="n"/>
     </row>
     <row r="152">
-      <c r="A152" s="49" t="n"/>
-      <c r="Z152" s="50" t="n"/>
+      <c r="A152" s="50" t="n"/>
+      <c r="Z152" s="51" t="n"/>
     </row>
     <row r="153">
-      <c r="A153" s="49" t="n"/>
-      <c r="Z153" s="50" t="n"/>
+      <c r="A153" s="50" t="n"/>
+      <c r="Z153" s="51" t="n"/>
     </row>
     <row r="154">
-      <c r="A154" s="49" t="n"/>
-      <c r="Z154" s="50" t="n"/>
+      <c r="A154" s="50" t="n"/>
+      <c r="Z154" s="51" t="n"/>
     </row>
     <row r="155">
-      <c r="A155" s="49" t="n"/>
-      <c r="Z155" s="50" t="n"/>
+      <c r="A155" s="50" t="n"/>
+      <c r="Z155" s="51" t="n"/>
     </row>
     <row r="156">
-      <c r="A156" s="49" t="n"/>
-      <c r="Z156" s="50" t="n"/>
+      <c r="A156" s="50" t="n"/>
+      <c r="Z156" s="51" t="n"/>
     </row>
     <row r="157">
-      <c r="A157" s="49" t="n"/>
-      <c r="Z157" s="50" t="n"/>
+      <c r="A157" s="50" t="n"/>
+      <c r="Z157" s="51" t="n"/>
     </row>
     <row r="158">
-      <c r="A158" s="49" t="n"/>
-      <c r="Z158" s="50" t="n"/>
+      <c r="A158" s="50" t="n"/>
+      <c r="Z158" s="51" t="n"/>
     </row>
     <row r="159">
-      <c r="A159" s="49" t="n"/>
-      <c r="Z159" s="50" t="n"/>
+      <c r="A159" s="50" t="n"/>
+      <c r="Z159" s="51" t="n"/>
     </row>
     <row r="160">
-      <c r="A160" s="49" t="n"/>
-      <c r="Z160" s="50" t="n"/>
+      <c r="A160" s="50" t="n"/>
+      <c r="Z160" s="51" t="n"/>
     </row>
     <row r="161">
-      <c r="A161" s="49" t="n"/>
-      <c r="Z161" s="50" t="n"/>
+      <c r="A161" s="50" t="n"/>
+      <c r="Z161" s="51" t="n"/>
     </row>
     <row r="162">
-      <c r="A162" s="49" t="n"/>
-      <c r="Z162" s="50" t="n"/>
+      <c r="A162" s="50" t="n"/>
+      <c r="Z162" s="51" t="n"/>
     </row>
     <row r="163">
-      <c r="A163" s="49" t="n"/>
-      <c r="Z163" s="50" t="n"/>
+      <c r="A163" s="50" t="n"/>
+      <c r="Z163" s="51" t="n"/>
     </row>
     <row r="164">
-      <c r="A164" s="49" t="n"/>
-      <c r="Z164" s="50" t="n"/>
+      <c r="A164" s="50" t="n"/>
+      <c r="Z164" s="51" t="n"/>
     </row>
     <row r="165">
-      <c r="A165" s="49" t="n"/>
-      <c r="Z165" s="50" t="n"/>
+      <c r="A165" s="50" t="n"/>
+      <c r="Z165" s="51" t="n"/>
     </row>
     <row r="166">
-      <c r="A166" s="49" t="n"/>
-      <c r="Z166" s="50" t="n"/>
+      <c r="A166" s="50" t="n"/>
+      <c r="Z166" s="51" t="n"/>
     </row>
     <row r="167">
-      <c r="A167" s="49" t="n"/>
-      <c r="Z167" s="50" t="n"/>
+      <c r="A167" s="50" t="n"/>
+      <c r="Z167" s="51" t="n"/>
     </row>
     <row r="168">
-      <c r="A168" s="49" t="n"/>
-      <c r="Z168" s="50" t="n"/>
+      <c r="A168" s="50" t="n"/>
+      <c r="Z168" s="51" t="n"/>
     </row>
     <row r="169">
-      <c r="A169" s="49" t="n"/>
-      <c r="Z169" s="50" t="n"/>
+      <c r="A169" s="50" t="n"/>
+      <c r="Z169" s="51" t="n"/>
     </row>
     <row r="170">
-      <c r="A170" s="49" t="n"/>
-      <c r="Z170" s="50" t="n"/>
+      <c r="A170" s="50" t="n"/>
+      <c r="Z170" s="51" t="n"/>
     </row>
     <row r="171">
-      <c r="A171" s="49" t="n"/>
-      <c r="Z171" s="50" t="n"/>
+      <c r="A171" s="50" t="n"/>
+      <c r="Z171" s="51" t="n"/>
     </row>
     <row r="172">
-      <c r="A172" s="49" t="n"/>
-      <c r="Z172" s="50" t="n"/>
+      <c r="A172" s="50" t="n"/>
+      <c r="Z172" s="51" t="n"/>
     </row>
     <row r="173">
-      <c r="A173" s="49" t="n"/>
-      <c r="B173" s="54" t="inlineStr">
+      <c r="A173" s="50" t="n"/>
+      <c r="B173" s="55" t="inlineStr">
         <is>
           <t>Z warunkami uczestnictwa zapoznałem/łam się i je akceptuję.</t>
         </is>
       </c>
-      <c r="Z173" s="50" t="n"/>
+      <c r="Z173" s="51" t="n"/>
     </row>
     <row r="174">
-      <c r="A174" s="49" t="n"/>
-      <c r="Z174" s="50" t="n"/>
+      <c r="A174" s="50" t="n"/>
+      <c r="Z174" s="51" t="n"/>
     </row>
     <row r="175">
-      <c r="A175" s="49" t="n"/>
-      <c r="B175" s="54" t="inlineStr">
+      <c r="A175" s="50" t="n"/>
+      <c r="B175" s="55" t="inlineStr">
         <is>
           <t>Podpis osoby przyjmującej zgłoszenie:</t>
         </is>
       </c>
-      <c r="P175" s="54" t="inlineStr">
+      <c r="P175" s="55" t="inlineStr">
         <is>
           <t>Podpis zgłaszającego:</t>
         </is>
       </c>
-      <c r="Z175" s="50" t="n"/>
+      <c r="Z175" s="51" t="n"/>
     </row>
     <row r="176">
-      <c r="A176" s="49" t="n"/>
-      <c r="Z176" s="50" t="n"/>
+      <c r="A176" s="50" t="n"/>
+      <c r="Z176" s="51" t="n"/>
     </row>
     <row r="177">
-      <c r="A177" s="49" t="n"/>
-      <c r="Z177" s="50" t="n"/>
+      <c r="A177" s="50" t="n"/>
+      <c r="Z177" s="51" t="n"/>
     </row>
     <row r="178">
-      <c r="A178" s="49" t="n"/>
-      <c r="Z178" s="50" t="n"/>
+      <c r="A178" s="50" t="n"/>
+      <c r="Z178" s="51" t="n"/>
     </row>
     <row r="179">
-      <c r="A179" s="49" t="n"/>
-      <c r="Z179" s="50" t="n"/>
+      <c r="A179" s="50" t="n"/>
+      <c r="Z179" s="51" t="n"/>
     </row>
     <row r="180">
-      <c r="A180" s="49" t="n"/>
-      <c r="Z180" s="50" t="n"/>
+      <c r="A180" s="50" t="n"/>
+      <c r="Z180" s="51" t="n"/>
     </row>
     <row r="181">
-      <c r="A181" s="49" t="n"/>
-      <c r="Z181" s="50" t="n"/>
+      <c r="A181" s="50" t="n"/>
+      <c r="Z181" s="51" t="n"/>
     </row>
     <row r="182">
-      <c r="A182" s="49" t="n"/>
-      <c r="B182" s="56" t="n">
+      <c r="A182" s="50" t="n"/>
+      <c r="B182" s="57" t="n">
         <v>44608</v>
       </c>
-      <c r="Z182" s="50" t="n"/>
+      <c r="Z182" s="51" t="n"/>
     </row>
     <row r="183">
-      <c r="A183" s="49" t="n"/>
+      <c r="A183" s="50" t="n"/>
       <c r="B183" t="inlineStr">
         <is>
           <t>.................................................................</t>
@@ -3063,75 +3041,74 @@
           <t>.................................................................</t>
         </is>
       </c>
-      <c r="Z183" s="50" t="n"/>
+      <c r="Z183" s="51" t="n"/>
     </row>
     <row r="184">
-      <c r="A184" s="49" t="n"/>
-      <c r="B184" s="35" t="inlineStr">
+      <c r="A184" s="50" t="n"/>
+      <c r="B184" s="36" t="inlineStr">
         <is>
           <t>Data i czytelny podpis</t>
         </is>
       </c>
-      <c r="P184" s="35" t="inlineStr">
+      <c r="P184" s="36" t="inlineStr">
         <is>
           <t>Data i czytelny podpis</t>
         </is>
       </c>
-      <c r="Z184" s="50" t="n"/>
+      <c r="Z184" s="51" t="n"/>
     </row>
     <row r="185">
-      <c r="A185" s="49" t="n"/>
-      <c r="Z185" s="50" t="n"/>
+      <c r="A185" s="50" t="n"/>
+      <c r="Z185" s="51" t="n"/>
     </row>
     <row r="186">
-      <c r="A186" s="49" t="n"/>
-      <c r="Z186" s="50" t="n"/>
+      <c r="A186" s="50" t="n"/>
+      <c r="Z186" s="51" t="n"/>
     </row>
     <row r="187">
-      <c r="A187" s="49" t="n"/>
-      <c r="Z187" s="50" t="n"/>
+      <c r="A187" s="50" t="n"/>
+      <c r="Z187" s="51" t="n"/>
     </row>
     <row r="188">
-      <c r="A188" s="49" t="n"/>
-      <c r="M188" s="51" t="inlineStr">
+      <c r="A188" s="50" t="n"/>
+      <c r="M188" s="52" t="inlineStr">
         <is>
           <t>3 / 3</t>
         </is>
       </c>
-      <c r="Z188" s="50" t="n"/>
+      <c r="Z188" s="51" t="n"/>
     </row>
     <row r="189">
-      <c r="A189" s="52" t="n"/>
-      <c r="B189" s="52" t="n"/>
-      <c r="C189" s="52" t="n"/>
-      <c r="D189" s="52" t="n"/>
-      <c r="E189" s="52" t="n"/>
-      <c r="F189" s="52" t="n"/>
-      <c r="G189" s="52" t="n"/>
-      <c r="H189" s="52" t="n"/>
-      <c r="I189" s="52" t="n"/>
-      <c r="J189" s="52" t="n"/>
-      <c r="K189" s="52" t="n"/>
-      <c r="L189" s="52" t="n"/>
-      <c r="O189" s="52" t="n"/>
-      <c r="P189" s="52" t="n"/>
-      <c r="Q189" s="52" t="n"/>
-      <c r="R189" s="52" t="n"/>
-      <c r="S189" s="52" t="n"/>
-      <c r="T189" s="52" t="n"/>
-      <c r="U189" s="52" t="n"/>
-      <c r="V189" s="52" t="n"/>
-      <c r="W189" s="52" t="n"/>
-      <c r="X189" s="52" t="n"/>
-      <c r="Y189" s="52" t="n"/>
-      <c r="Z189" s="52" t="n"/>
+      <c r="A189" s="53" t="n"/>
+      <c r="B189" s="53" t="n"/>
+      <c r="C189" s="53" t="n"/>
+      <c r="D189" s="53" t="n"/>
+      <c r="E189" s="53" t="n"/>
+      <c r="F189" s="53" t="n"/>
+      <c r="G189" s="53" t="n"/>
+      <c r="H189" s="53" t="n"/>
+      <c r="I189" s="53" t="n"/>
+      <c r="J189" s="53" t="n"/>
+      <c r="K189" s="53" t="n"/>
+      <c r="L189" s="53" t="n"/>
+      <c r="O189" s="53" t="n"/>
+      <c r="P189" s="53" t="n"/>
+      <c r="Q189" s="53" t="n"/>
+      <c r="R189" s="53" t="n"/>
+      <c r="S189" s="53" t="n"/>
+      <c r="T189" s="53" t="n"/>
+      <c r="U189" s="53" t="n"/>
+      <c r="V189" s="53" t="n"/>
+      <c r="W189" s="53" t="n"/>
+      <c r="X189" s="53" t="n"/>
+      <c r="Y189" s="53" t="n"/>
+      <c r="Z189" s="53" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
+  <mergeCells count="62">
     <mergeCell ref="M62:N63"/>
     <mergeCell ref="R30:Y30"/>
     <mergeCell ref="R31:Y31"/>
-    <mergeCell ref="B8:Y8"/>
     <mergeCell ref="B10:Y10"/>
     <mergeCell ref="B11:Y11"/>
     <mergeCell ref="B12:Y12"/>
@@ -3142,6 +3119,7 @@
     <mergeCell ref="R18:Y18"/>
     <mergeCell ref="R20:Y20"/>
     <mergeCell ref="R27:Y27"/>
+    <mergeCell ref="B8:Y8"/>
     <mergeCell ref="B41:E42"/>
     <mergeCell ref="F41:I42"/>
     <mergeCell ref="J41:K42"/>
@@ -3172,17 +3150,13 @@
     <mergeCell ref="W57:Y59"/>
     <mergeCell ref="M125:N126"/>
     <mergeCell ref="B73:E74"/>
-    <mergeCell ref="F73:I74"/>
-    <mergeCell ref="J73:K74"/>
-    <mergeCell ref="L73:Q74"/>
-    <mergeCell ref="R73:V74"/>
-    <mergeCell ref="W73:Y74"/>
+    <mergeCell ref="F73:H74"/>
+    <mergeCell ref="I73:J74"/>
+    <mergeCell ref="K73:Y74"/>
     <mergeCell ref="B75:E77"/>
-    <mergeCell ref="F75:I77"/>
-    <mergeCell ref="J75:K77"/>
-    <mergeCell ref="L75:Q77"/>
-    <mergeCell ref="R75:V77"/>
-    <mergeCell ref="W75:Y77"/>
+    <mergeCell ref="F75:H77"/>
+    <mergeCell ref="I75:J77"/>
+    <mergeCell ref="K75:Y77"/>
     <mergeCell ref="B84:E85"/>
     <mergeCell ref="F84:Y85"/>
     <mergeCell ref="B86:E88"/>
